--- a/mobi_client/mobi_client/mobi_config/excel/关卡表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/关卡表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054DB3A0-B957-431B-8875-7D1539234CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CE9A9A-880F-4DD5-8A8C-932AB8B6D97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27240" yWindow="0" windowWidth="13500" windowHeight="20835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25290" yWindow="1455" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage" sheetId="1" r:id="rId1"/>

--- a/mobi_client/mobi_client/mobi_config/excel/关卡表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/关卡表.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOBI\mobi_client\mobi_config\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="14340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="Stage" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">StageChallenge!$A$1:$F$152</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -27,12 +32,13 @@
     <author>tesrt</author>
   </authors>
   <commentList>
-    <comment ref="R1" authorId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">1：装备副本
@@ -44,13 +50,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="1">
+    <comment ref="T1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>tesrt:</t>
@@ -59,6 +66,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -78,13 +86,14 @@
     <author>ADMIN</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>ADMIN:</t>
@@ -93,6 +102,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -115,13 +125,14 @@
     <author>tesrt</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>1：坚持固定回合数（大于）
@@ -135,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="565">
   <si>
     <t>ID</t>
   </si>
@@ -395,6 +406,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>first</t>
@@ -405,6 +417,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_drop</t>
@@ -472,6 +485,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>a</t>
@@ -480,6 +494,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>aint</t>
@@ -490,6 +505,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>i</t>
@@ -498,6 +514,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>nt</t>
@@ -587,6 +604,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -597,6 +615,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -607,6 +626,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -625,6 +645,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -635,6 +656,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -645,6 +667,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -655,6 +678,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -665,6 +689,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -675,6 +700,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -705,6 +731,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -715,6 +742,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -725,6 +753,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -743,6 +772,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -753,6 +783,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -768,6 +799,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -778,6 +810,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -788,6 +821,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -803,6 +837,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -813,6 +848,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -825,6 +861,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -835,6 +872,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -845,6 +883,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -860,6 +899,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -870,6 +910,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -880,6 +921,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -898,6 +940,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -908,6 +951,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -918,6 +962,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -954,6 +999,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -964,6 +1010,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1015,6 +1062,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1025,6 +1073,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1035,6 +1084,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1074,6 +1124,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1084,6 +1135,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1578,6 +1630,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1588,6 +1641,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1598,6 +1652,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1608,6 +1663,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1618,6 +1674,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1628,6 +1685,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1638,6 +1696,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1662,6 +1721,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1674,6 +1734,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1684,6 +1745,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1694,6 +1756,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1704,6 +1767,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1714,6 +1778,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1724,6 +1789,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1748,6 +1814,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1758,6 +1825,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1768,6 +1836,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1778,6 +1847,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1788,6 +1858,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1798,6 +1869,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1822,6 +1894,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1832,6 +1905,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1842,6 +1916,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1852,6 +1927,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1862,6 +1938,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1872,6 +1949,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1893,6 +1971,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1903,6 +1982,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1915,6 +1995,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1925,6 +2006,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1935,6 +2017,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1945,6 +2028,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1955,6 +2039,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1965,6 +2050,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1983,6 +2069,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1993,6 +2080,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2005,6 +2093,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2015,6 +2104,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2025,6 +2115,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2035,6 +2126,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2045,6 +2137,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2055,6 +2148,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2553,6 +2647,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2563,6 +2658,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2668,18 +2764,16 @@
   <si>
     <t>1回合内，击杀最后一波敌人数量</t>
   </si>
+  <si>
+    <t>支线-碎雨（巡）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2691,6 +2785,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2699,6 +2794,7 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2706,176 +2802,44 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2896,25 +2860,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.397991882076479"/>
+        <fgColor theme="3" tint="0.3979613635670034"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349986266670736"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2926,7 +2890,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.398022400585955"/>
+        <fgColor theme="3" tint="0.3979918820764794"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2938,43 +2902,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799340800195319"/>
+        <fgColor theme="6" tint="0.7993408001953185"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.398815881832331"/>
+        <fgColor theme="9" tint="0.3987853633228553"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799340800195319"/>
+        <fgColor theme="9" tint="0.7993408001953185"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799340800195319"/>
+        <fgColor theme="3" tint="0.7993408001953185"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799768059327982"/>
+        <fgColor theme="9" tint="0.79973754081850645"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799340800195319"/>
+        <fgColor theme="8" tint="0.7993408001953185"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399731437116611"/>
+        <fgColor theme="6" tint="0.39970091860713525"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2986,25 +2950,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799493392742698"/>
+        <fgColor theme="6" tint="0.79946287423322249"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799737540818506"/>
+        <fgColor theme="4" tint="0.79970702230903046"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399731437116611"/>
+        <fgColor theme="4" tint="0.39970091860713525"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3016,210 +2980,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.397961363567003"/>
+        <fgColor theme="3" tint="0.3979308450575274"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799768059327982"/>
+        <fgColor theme="6" tint="0.79973754081850645"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399761955626087"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.39973143711661124"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3251,254 +3029,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -3515,40 +3051,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="50" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="50" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="50" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="50" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3572,102 +3108,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="52" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="52">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="52" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="50" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="50" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="50" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="50" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="50" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="50" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="50" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="50" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="50" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="50" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="50" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="50" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="50" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="50" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="50" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="50" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="50" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="50" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="50" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -3711,19 +3247,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -3792,13 +3328,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3934,65 +3470,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="常规 2 2" xfId="44"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="50"/>
-    <cellStyle name="常规 3" xfId="51"/>
-    <cellStyle name="常规 4" xfId="52"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 2 2" xfId="1"/>
+    <cellStyle name="常规 3" xfId="3"/>
+    <cellStyle name="常规 4" xfId="4"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4279,23 +3771,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AZ204"/>
+  <dimension ref="A1:AZ205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="J136" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D181" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M145" sqref="M145"/>
+      <selection pane="bottomRight" activeCell="E200" sqref="E200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="18.25" style="16" customWidth="1"/>
     <col min="3" max="3" width="27.125" style="16" customWidth="1"/>
@@ -4338,7 +3830,7 @@
     <col min="52" max="52" width="23.75" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="48" spans="1:52">
+    <row r="1" spans="1:52" ht="48" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4494,7 +3986,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:52">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>51</v>
       </c>
@@ -4648,7 +4140,7 @@
       <c r="AY2" s="72"/>
       <c r="AZ2" s="4"/>
     </row>
-    <row r="3" spans="1:52">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>101</v>
       </c>
@@ -4802,7 +4294,7 @@
       <c r="AY3" s="5"/>
       <c r="AZ3" s="5"/>
     </row>
-    <row r="4" s="56" customFormat="1" spans="1:52">
+    <row r="4" spans="1:52" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
         <v>108</v>
       </c>
@@ -4875,7 +4367,7 @@
       <c r="AX4" s="95"/>
       <c r="AZ4" s="75"/>
     </row>
-    <row r="5" s="56" customFormat="1" spans="1:52">
+    <row r="5" spans="1:52" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="75">
         <v>1001</v>
       </c>
@@ -4958,7 +4450,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" s="56" customFormat="1" spans="1:52">
+    <row r="6" spans="1:52" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="75">
         <v>1002</v>
       </c>
@@ -5043,7 +4535,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" s="56" customFormat="1" spans="1:52">
+    <row r="7" spans="1:52" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="75">
         <v>1003</v>
       </c>
@@ -5130,7 +4622,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" s="56" customFormat="1" spans="1:52">
+    <row r="8" spans="1:52" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="75">
         <v>1004</v>
       </c>
@@ -5211,7 +4703,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" s="57" customFormat="1" spans="1:52">
+    <row r="9" spans="1:52" s="57" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="78">
         <v>1005</v>
       </c>
@@ -5226,7 +4718,7 @@
         <v>130</v>
       </c>
       <c r="F9" s="79">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G9" s="79" t="s">
         <v>118</v>
@@ -5305,7 +4797,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" s="57" customFormat="1" spans="1:52">
+    <row r="10" spans="1:52" s="57" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="78">
         <v>1006</v>
       </c>
@@ -5394,7 +4886,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" s="57" customFormat="1" spans="1:52">
+    <row r="11" spans="1:52" s="57" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="78">
         <v>1007</v>
       </c>
@@ -5483,7 +4975,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" s="57" customFormat="1" spans="1:52">
+    <row r="12" spans="1:52" s="57" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="78">
         <v>1008</v>
       </c>
@@ -5575,7 +5067,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="13" s="57" customFormat="1" spans="1:52">
+    <row r="13" spans="1:52" s="57" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="78">
         <v>1009</v>
       </c>
@@ -5660,7 +5152,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" s="57" customFormat="1" spans="1:52">
+    <row r="14" spans="1:52" s="57" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="78">
         <v>1010</v>
       </c>
@@ -5748,7 +5240,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" s="57" customFormat="1" spans="1:52">
+    <row r="15" spans="1:52" s="57" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="78">
         <v>1011</v>
       </c>
@@ -5833,7 +5325,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" s="57" customFormat="1" spans="1:52">
+    <row r="16" spans="1:52" s="57" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="78">
         <v>1012</v>
       </c>
@@ -5918,7 +5410,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="17" s="57" customFormat="1" spans="1:52">
+    <row r="17" spans="1:52" s="57" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="78">
         <v>1013</v>
       </c>
@@ -6003,7 +5495,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" s="57" customFormat="1" spans="1:52">
+    <row r="18" spans="1:52" s="57" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="78">
         <v>1014</v>
       </c>
@@ -6018,7 +5510,7 @@
         <v>137</v>
       </c>
       <c r="F18" s="79">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G18" s="79" t="s">
         <v>158</v>
@@ -6088,7 +5580,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" s="58" customFormat="1" spans="1:52">
+    <row r="19" spans="1:52" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="81">
         <v>1021</v>
       </c>
@@ -6171,7 +5663,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" s="58" customFormat="1" spans="1:52">
+    <row r="20" spans="1:52" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="81">
         <v>1022</v>
       </c>
@@ -6254,7 +5746,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" s="58" customFormat="1" spans="1:52">
+    <row r="21" spans="1:52" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="81">
         <v>1023</v>
       </c>
@@ -6337,7 +5829,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" s="58" customFormat="1" spans="1:52">
+    <row r="22" spans="1:52" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="81">
         <v>1024</v>
       </c>
@@ -6420,7 +5912,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="23" s="58" customFormat="1" spans="1:52">
+    <row r="23" spans="1:52" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="81">
         <v>1025</v>
       </c>
@@ -6505,7 +5997,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="24" s="58" customFormat="1" spans="1:52">
+    <row r="24" spans="1:52" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="81">
         <v>1026</v>
       </c>
@@ -6588,7 +6080,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" s="58" customFormat="1" spans="1:52">
+    <row r="25" spans="1:52" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="81">
         <v>1027</v>
       </c>
@@ -6671,7 +6163,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" s="58" customFormat="1" spans="1:52">
+    <row r="26" spans="1:52" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="81">
         <v>1028</v>
       </c>
@@ -6754,7 +6246,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="27" s="58" customFormat="1" spans="1:52">
+    <row r="27" spans="1:52" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="81">
         <v>1029</v>
       </c>
@@ -6837,7 +6329,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="28" s="57" customFormat="1" spans="1:52">
+    <row r="28" spans="1:52" s="57" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="78">
         <v>1031</v>
       </c>
@@ -6921,7 +6413,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="29" s="57" customFormat="1" spans="1:52">
+    <row r="29" spans="1:52" s="57" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="78">
         <v>1032</v>
       </c>
@@ -7005,7 +6497,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" s="57" customFormat="1" spans="1:52">
+    <row r="30" spans="1:52" s="57" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="78">
         <v>1033</v>
       </c>
@@ -7089,7 +6581,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="31" s="57" customFormat="1" spans="1:52">
+    <row r="31" spans="1:52" s="57" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="78">
         <v>1034</v>
       </c>
@@ -7173,7 +6665,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="32" s="57" customFormat="1" spans="1:52">
+    <row r="32" spans="1:52" s="57" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="78">
         <v>1035</v>
       </c>
@@ -7259,7 +6751,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="33" s="57" customFormat="1" spans="1:52">
+    <row r="33" spans="1:52" s="57" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="78">
         <v>1036</v>
       </c>
@@ -7343,7 +6835,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="34" s="57" customFormat="1" spans="1:52">
+    <row r="34" spans="1:52" s="57" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="78">
         <v>1037</v>
       </c>
@@ -7427,7 +6919,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="35" s="57" customFormat="1" spans="1:52">
+    <row r="35" spans="1:52" s="57" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="78">
         <v>1038</v>
       </c>
@@ -7511,7 +7003,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="36" s="57" customFormat="1" spans="1:52">
+    <row r="36" spans="1:52" s="57" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="78">
         <v>1039</v>
       </c>
@@ -7595,7 +7087,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" s="59" customFormat="1" spans="1:52">
+    <row r="37" spans="1:52" s="59" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="85">
         <v>1040</v>
       </c>
@@ -7682,7 +7174,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="38" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="38" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="88">
         <v>2001</v>
       </c>
@@ -7802,7 +7294,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="39" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="39" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="88">
         <v>2002</v>
       </c>
@@ -7922,7 +7414,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="40" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="40" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="88">
         <v>2003</v>
       </c>
@@ -8044,7 +7536,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="41" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="41" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="88">
         <v>2004</v>
       </c>
@@ -8149,7 +7641,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="42" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="42" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="88">
         <v>2005</v>
       </c>
@@ -8269,7 +7761,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="43" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="88">
         <v>2006</v>
       </c>
@@ -8391,7 +7883,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="44" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="44" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="88">
         <v>2007</v>
       </c>
@@ -8513,7 +8005,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="45" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="45" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="88">
         <v>2008</v>
       </c>
@@ -8618,7 +8110,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="46" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="46" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="88">
         <v>2009</v>
       </c>
@@ -8740,7 +8232,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="47" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="47" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="88">
         <v>2010</v>
       </c>
@@ -8860,7 +8352,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="48" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="48" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="88">
         <v>2011</v>
       </c>
@@ -8965,7 +8457,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="49" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="49" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="88">
         <v>2012</v>
       </c>
@@ -9070,7 +8562,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="50" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="50" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="88">
         <v>2013</v>
       </c>
@@ -9192,7 +8684,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="51" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="51" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="88">
         <v>2014</v>
       </c>
@@ -9312,7 +8804,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="52" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="52" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="88">
         <v>2015</v>
       </c>
@@ -9432,7 +8924,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="53" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="53" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="88">
         <v>2016</v>
       </c>
@@ -9539,7 +9031,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="54" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="54" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="88">
         <v>2017</v>
       </c>
@@ -9659,7 +9151,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="55" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="55" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="88">
         <v>2018</v>
       </c>
@@ -9781,7 +9273,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="56" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="56" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="88">
         <v>2019</v>
       </c>
@@ -9901,7 +9393,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="57" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="57" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="88">
         <v>2020</v>
       </c>
@@ -10021,7 +9513,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="58" s="61" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="58" spans="1:52" s="61" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="91">
         <v>2021</v>
       </c>
@@ -10141,7 +9633,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="59" s="61" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="59" spans="1:52" s="61" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="91">
         <v>2022</v>
       </c>
@@ -10259,7 +9751,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="60" s="61" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="60" spans="1:52" s="61" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="91">
         <v>2023</v>
       </c>
@@ -10378,7 +9870,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="61" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="61" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="88">
         <v>2024</v>
       </c>
@@ -10501,7 +9993,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="62" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="62" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="88">
         <v>2025</v>
       </c>
@@ -10606,7 +10098,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="63" s="61" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="63" spans="1:52" s="61" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="91">
         <v>2026</v>
       </c>
@@ -10709,7 +10201,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="64" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="64" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="88">
         <v>2027</v>
       </c>
@@ -10832,7 +10324,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="65" s="61" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="65" spans="1:52" s="61" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="91">
         <v>2028</v>
       </c>
@@ -10937,7 +10429,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="66" s="61" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="66" spans="1:52" s="61" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="91">
         <v>2029</v>
       </c>
@@ -11034,7 +10526,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="67" s="61" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="67" spans="1:52" s="61" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="91">
         <v>2030</v>
       </c>
@@ -11147,7 +10639,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="68" s="61" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="68" spans="1:52" s="61" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="91">
         <v>2031</v>
       </c>
@@ -11260,7 +10752,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="69" s="61" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="69" spans="1:52" s="61" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="91">
         <v>2032</v>
       </c>
@@ -11357,7 +10849,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="70" s="61" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="70" spans="1:52" s="61" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="91">
         <v>2033</v>
       </c>
@@ -11454,7 +10946,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="71" s="61" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="71" spans="1:52" s="61" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="91">
         <v>2034</v>
       </c>
@@ -11567,7 +11059,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="72" s="61" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="72" spans="1:52" s="61" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="91">
         <v>2035</v>
       </c>
@@ -11680,7 +11172,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="73" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="73" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="88">
         <v>2036</v>
       </c>
@@ -11779,7 +11271,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="74" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="74" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="88">
         <v>2037</v>
       </c>
@@ -11878,7 +11370,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="75" s="61" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="75" spans="1:52" s="61" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="91">
         <v>2038</v>
       </c>
@@ -11991,7 +11483,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="76" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="76" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="88">
         <v>2039</v>
       </c>
@@ -12106,7 +11598,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="77" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="77" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="111">
         <v>2101</v>
       </c>
@@ -12219,7 +11711,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="78" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="78" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="111">
         <v>2102</v>
       </c>
@@ -12332,7 +11824,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="79" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="79" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="111">
         <v>2103</v>
       </c>
@@ -12445,7 +11937,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="80" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="80" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="111">
         <v>2104</v>
       </c>
@@ -12558,7 +12050,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="81" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="81" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="111">
         <v>2105</v>
       </c>
@@ -12671,7 +12163,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="82" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="82" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="111">
         <v>2106</v>
       </c>
@@ -12784,7 +12276,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="83" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="83" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="111">
         <v>2107</v>
       </c>
@@ -12897,7 +12389,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="84" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="84" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="111">
         <v>2108</v>
       </c>
@@ -13010,7 +12502,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="85" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="85" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="111">
         <v>2109</v>
       </c>
@@ -13123,7 +12615,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="86" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="86" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="111">
         <v>2110</v>
       </c>
@@ -13236,7 +12728,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="87" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="87" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="111">
         <v>2111</v>
       </c>
@@ -13333,7 +12825,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="88" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="88" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="111">
         <v>2112</v>
       </c>
@@ -13446,7 +12938,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="89" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="89" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="111">
         <v>2113</v>
       </c>
@@ -13559,7 +13051,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="90" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="90" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="111">
         <v>2114</v>
       </c>
@@ -13656,7 +13148,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="91" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="91" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="111">
         <v>2115</v>
       </c>
@@ -13769,7 +13261,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="92" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="92" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="111">
         <v>2116</v>
       </c>
@@ -13882,7 +13374,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="93" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="93" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="111">
         <v>2117</v>
       </c>
@@ -13979,7 +13471,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="94" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="94" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="111">
         <v>2118</v>
       </c>
@@ -14092,7 +13584,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="95" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="95" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="111">
         <v>2119</v>
       </c>
@@ -14205,7 +13697,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="96" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="96" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="111">
         <v>2120</v>
       </c>
@@ -14318,7 +13810,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="97" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="97" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="111">
         <v>2121</v>
       </c>
@@ -14415,7 +13907,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="98" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="98" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="111">
         <v>2122</v>
       </c>
@@ -14528,7 +14020,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="99" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="99" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="111">
         <v>2123</v>
       </c>
@@ -14641,7 +14133,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="100" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="100" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="111">
         <v>2124</v>
       </c>
@@ -14754,7 +14246,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="101" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="101" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="111">
         <v>2125</v>
       </c>
@@ -14851,7 +14343,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="102" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="102" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="111">
         <v>2126</v>
       </c>
@@ -14964,7 +14456,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="103" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="103" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="111">
         <v>2127</v>
       </c>
@@ -15077,7 +14569,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="104" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="104" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="111">
         <v>2128</v>
       </c>
@@ -15190,7 +14682,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="105" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="105" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="111">
         <v>2129</v>
       </c>
@@ -15287,7 +14779,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="106" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="106" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="111">
         <v>2130</v>
       </c>
@@ -15384,7 +14876,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="107" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="107" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="111">
         <v>2131</v>
       </c>
@@ -15497,7 +14989,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="108" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="108" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="111">
         <v>2132</v>
       </c>
@@ -15610,7 +15102,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="109" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="109" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="111">
         <v>2133</v>
       </c>
@@ -15723,7 +15215,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="110" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="110" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="111">
         <v>2134</v>
       </c>
@@ -15836,7 +15328,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="111" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="111" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="111">
         <v>2135</v>
       </c>
@@ -15933,7 +15425,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="112" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="112" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="88">
         <v>2201</v>
       </c>
@@ -16046,7 +15538,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="113" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="113" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="88">
         <v>2202</v>
       </c>
@@ -16159,7 +15651,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="114" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="114" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="88">
         <v>2203</v>
       </c>
@@ -16272,7 +15764,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="115" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="115" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="88">
         <v>2204</v>
       </c>
@@ -16385,7 +15877,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="116" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="116" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="88">
         <v>2205</v>
       </c>
@@ -16498,7 +15990,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="117" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="117" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="88">
         <v>2206</v>
       </c>
@@ -16595,7 +16087,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="118" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="118" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="88">
         <v>2207</v>
       </c>
@@ -16708,7 +16200,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="119" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="119" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="88">
         <v>2208</v>
       </c>
@@ -16821,7 +16313,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="120" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="120" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="88">
         <v>2209</v>
       </c>
@@ -16934,7 +16426,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="121" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="121" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="88">
         <v>2210</v>
       </c>
@@ -17031,7 +16523,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="122" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="122" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="88">
         <v>2211</v>
       </c>
@@ -17144,7 +16636,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="123" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="123" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="88">
         <v>2212</v>
       </c>
@@ -17257,7 +16749,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="124" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="124" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="88">
         <v>2213</v>
       </c>
@@ -17354,7 +16846,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="125" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="125" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="88">
         <v>2214</v>
       </c>
@@ -17467,7 +16959,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="126" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="126" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="88">
         <v>2215</v>
       </c>
@@ -17564,7 +17056,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="127" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="127" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="88">
         <v>2216</v>
       </c>
@@ -17661,7 +17153,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="128" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="128" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="88">
         <v>2217</v>
       </c>
@@ -17758,7 +17250,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="129" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="129" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="88">
         <v>2218</v>
       </c>
@@ -17871,7 +17363,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="130" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="130" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="88">
         <v>2219</v>
       </c>
@@ -17968,7 +17460,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="131" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="131" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="88">
         <v>2220</v>
       </c>
@@ -18081,7 +17573,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="132" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="132" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="88">
         <v>2221</v>
       </c>
@@ -18194,7 +17686,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="133" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="133" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="88">
         <v>2222</v>
       </c>
@@ -18291,7 +17783,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="134" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="134" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="88">
         <v>2223</v>
       </c>
@@ -18388,7 +17880,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="135" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="135" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="88">
         <v>2224</v>
       </c>
@@ -18501,7 +17993,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="136" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="136" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="88">
         <v>2225</v>
       </c>
@@ -18598,7 +18090,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="137" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="137" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="88">
         <v>2226</v>
       </c>
@@ -18711,7 +18203,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="138" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="138" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="88">
         <v>2227</v>
       </c>
@@ -18824,7 +18316,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="139" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="139" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="88">
         <v>2228</v>
       </c>
@@ -18921,7 +18413,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="140" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="140" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="88">
         <v>2229</v>
       </c>
@@ -19018,7 +18510,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="141" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="141" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="88">
         <v>2230</v>
       </c>
@@ -19131,7 +18623,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="142" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="142" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="88">
         <v>2231</v>
       </c>
@@ -19228,7 +18720,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="143" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="143" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="88">
         <v>2232</v>
       </c>
@@ -19341,7 +18833,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="144" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="144" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="88">
         <v>2233</v>
       </c>
@@ -19454,7 +18946,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="145" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
+    <row r="145" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="88">
         <v>2234</v>
       </c>
@@ -19550,7 +19042,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="146" s="63" customFormat="1" spans="1:52">
+    <row r="146" spans="1:52" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A146" s="118">
         <v>3101</v>
       </c>
@@ -19669,7 +19161,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="147" s="63" customFormat="1" spans="1:52">
+    <row r="147" spans="1:52" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A147" s="118">
         <v>3102</v>
       </c>
@@ -19788,7 +19280,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="148" s="63" customFormat="1" spans="1:52">
+    <row r="148" spans="1:52" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A148" s="118">
         <v>3103</v>
       </c>
@@ -19906,7 +19398,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="149" s="63" customFormat="1" spans="1:52">
+    <row r="149" spans="1:52" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A149" s="118">
         <v>3104</v>
       </c>
@@ -20024,7 +19516,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="150" s="63" customFormat="1" spans="1:52">
+    <row r="150" spans="1:52" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A150" s="118">
         <v>3105</v>
       </c>
@@ -20143,7 +19635,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="151" s="63" customFormat="1" spans="1:52">
+    <row r="151" spans="1:52" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A151" s="118">
         <v>3106</v>
       </c>
@@ -20262,7 +19754,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="152" s="63" customFormat="1" spans="1:52">
+    <row r="152" spans="1:52" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A152" s="118">
         <v>3107</v>
       </c>
@@ -20381,7 +19873,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="153" s="64" customFormat="1" spans="1:52">
+    <row r="153" spans="1:52" s="64" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A153" s="122">
         <v>3201</v>
       </c>
@@ -20499,7 +19991,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="154" s="64" customFormat="1" spans="1:52">
+    <row r="154" spans="1:52" s="64" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A154" s="122">
         <v>3202</v>
       </c>
@@ -20617,7 +20109,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="155" s="64" customFormat="1" spans="1:52">
+    <row r="155" spans="1:52" s="64" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A155" s="122">
         <v>3203</v>
       </c>
@@ -20735,7 +20227,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="156" s="64" customFormat="1" spans="1:52">
+    <row r="156" spans="1:52" s="64" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A156" s="122">
         <v>3204</v>
       </c>
@@ -20852,7 +20344,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="157" s="64" customFormat="1" spans="1:52">
+    <row r="157" spans="1:52" s="64" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A157" s="122">
         <v>3205</v>
       </c>
@@ -20970,7 +20462,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="158" s="64" customFormat="1" spans="1:52">
+    <row r="158" spans="1:52" s="64" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A158" s="122">
         <v>3206</v>
       </c>
@@ -21088,7 +20580,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="159" s="64" customFormat="1" spans="1:52">
+    <row r="159" spans="1:52" s="64" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A159" s="122">
         <v>3207</v>
       </c>
@@ -21206,7 +20698,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="160" s="65" customFormat="1" spans="1:52">
+    <row r="160" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A160" s="125">
         <v>4001</v>
       </c>
@@ -21288,7 +20780,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="161" s="65" customFormat="1" spans="1:52">
+    <row r="161" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A161" s="125">
         <v>4002</v>
       </c>
@@ -21370,7 +20862,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="162" s="65" customFormat="1" spans="1:52">
+    <row r="162" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A162" s="125">
         <v>4003</v>
       </c>
@@ -21452,7 +20944,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="163" s="65" customFormat="1" spans="1:52">
+    <row r="163" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A163" s="125">
         <v>4004</v>
       </c>
@@ -21534,7 +21026,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="164" s="65" customFormat="1" spans="1:52">
+    <row r="164" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A164" s="125">
         <v>4005</v>
       </c>
@@ -21616,7 +21108,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="165" s="65" customFormat="1" spans="1:52">
+    <row r="165" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A165" s="125">
         <v>4006</v>
       </c>
@@ -21698,7 +21190,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="166" s="65" customFormat="1" spans="1:52">
+    <row r="166" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A166" s="125">
         <v>4007</v>
       </c>
@@ -21780,7 +21272,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="167" s="65" customFormat="1" spans="1:52">
+    <row r="167" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A167" s="125">
         <v>4008</v>
       </c>
@@ -21862,7 +21354,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="168" s="65" customFormat="1" spans="1:52">
+    <row r="168" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A168" s="125">
         <v>4009</v>
       </c>
@@ -21944,7 +21436,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="169" s="65" customFormat="1" spans="1:52">
+    <row r="169" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A169" s="125">
         <v>4010</v>
       </c>
@@ -22026,7 +21518,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="170" s="65" customFormat="1" spans="1:52">
+    <row r="170" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A170" s="125">
         <v>4011</v>
       </c>
@@ -22108,7 +21600,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="171" s="65" customFormat="1" spans="1:52">
+    <row r="171" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A171" s="125">
         <v>4012</v>
       </c>
@@ -22190,7 +21682,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="172" s="65" customFormat="1" spans="1:52">
+    <row r="172" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A172" s="125">
         <v>4013</v>
       </c>
@@ -22274,7 +21766,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="173" s="65" customFormat="1" spans="1:52">
+    <row r="173" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A173" s="125">
         <v>4014</v>
       </c>
@@ -22358,7 +21850,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="174" s="65" customFormat="1" spans="1:52">
+    <row r="174" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A174" s="125">
         <v>4015</v>
       </c>
@@ -22442,7 +21934,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="175" s="65" customFormat="1" spans="1:52">
+    <row r="175" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A175" s="125">
         <v>4016</v>
       </c>
@@ -22524,7 +22016,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="176" s="65" customFormat="1" spans="1:52">
+    <row r="176" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A176" s="125">
         <v>4017</v>
       </c>
@@ -22606,7 +22098,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="177" s="65" customFormat="1" spans="1:52">
+    <row r="177" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A177" s="125">
         <v>4018</v>
       </c>
@@ -22688,7 +22180,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="178" s="65" customFormat="1" spans="1:52">
+    <row r="178" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A178" s="125">
         <v>4019</v>
       </c>
@@ -22770,7 +22262,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="179" s="65" customFormat="1" spans="1:52">
+    <row r="179" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A179" s="125">
         <v>4020</v>
       </c>
@@ -22854,7 +22346,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="180" s="65" customFormat="1" spans="1:52">
+    <row r="180" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A180" s="125">
         <v>4021</v>
       </c>
@@ -22936,7 +22428,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="181" s="65" customFormat="1" spans="1:52">
+    <row r="181" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A181" s="125">
         <v>4022</v>
       </c>
@@ -23018,7 +22510,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="182" s="66" customFormat="1" spans="1:52">
+    <row r="182" spans="1:52" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A182" s="128">
         <v>4024</v>
       </c>
@@ -23100,7 +22592,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="183" s="66" customFormat="1" spans="1:52">
+    <row r="183" spans="1:52" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A183" s="128">
         <v>4025</v>
       </c>
@@ -23182,7 +22674,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="184" s="66" customFormat="1" spans="1:52">
+    <row r="184" spans="1:52" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A184" s="128">
         <v>4026</v>
       </c>
@@ -23264,7 +22756,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="185" s="66" customFormat="1" spans="1:52">
+    <row r="185" spans="1:52" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A185" s="128">
         <v>4027</v>
       </c>
@@ -23346,7 +22838,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="186" s="66" customFormat="1" spans="1:52">
+    <row r="186" spans="1:52" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A186" s="128">
         <v>4028</v>
       </c>
@@ -23428,7 +22920,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="187" s="66" customFormat="1" spans="1:52">
+    <row r="187" spans="1:52" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A187" s="128">
         <v>4029</v>
       </c>
@@ -23510,7 +23002,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="188" s="66" customFormat="1" spans="1:52">
+    <row r="188" spans="1:52" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A188" s="128">
         <v>4030</v>
       </c>
@@ -23592,7 +23084,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="189" s="66" customFormat="1" spans="1:52">
+    <row r="189" spans="1:52" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A189" s="128">
         <v>4031</v>
       </c>
@@ -23674,7 +23166,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="190" s="66" customFormat="1" spans="1:52">
+    <row r="190" spans="1:52" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A190" s="128">
         <v>4032</v>
       </c>
@@ -23756,7 +23248,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="191" s="66" customFormat="1" spans="1:52">
+    <row r="191" spans="1:52" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A191" s="128">
         <v>4033</v>
       </c>
@@ -23838,7 +23330,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="192" s="66" customFormat="1" spans="1:52">
+    <row r="192" spans="1:52" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A192" s="128">
         <v>4034</v>
       </c>
@@ -23920,15 +23412,15 @@
         <v>432</v>
       </c>
     </row>
-    <row r="193" s="66" customFormat="1" spans="1:52">
+    <row r="193" spans="1:52" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A193" s="128">
-        <v>4071</v>
+        <v>4035</v>
       </c>
       <c r="B193" s="128">
-        <v>4071</v>
+        <v>4035</v>
       </c>
       <c r="C193" s="128" t="s">
-        <v>433</v>
+        <v>564</v>
       </c>
       <c r="D193" s="129"/>
       <c r="E193" s="128" t="s">
@@ -23940,9 +23432,7 @@
       <c r="G193" s="128" t="s">
         <v>118</v>
       </c>
-      <c r="H193" s="128">
-        <v>3002003</v>
-      </c>
+      <c r="H193" s="128"/>
       <c r="I193" s="128" t="s">
         <v>119</v>
       </c>
@@ -23998,23 +23488,21 @@
       <c r="AW193" s="138">
         <v>0</v>
       </c>
-      <c r="AX193" s="138">
-        <v>1</v>
-      </c>
+      <c r="AX193" s="138"/>
       <c r="AY193" s="138"/>
       <c r="AZ193" s="128" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="194" s="66" customFormat="1" spans="1:52">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="194" spans="1:52" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A194" s="128">
-        <v>4072</v>
+        <v>4071</v>
       </c>
       <c r="B194" s="128">
-        <v>4072</v>
+        <v>4071</v>
       </c>
       <c r="C194" s="128" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D194" s="129"/>
       <c r="E194" s="128" t="s">
@@ -24027,7 +23515,7 @@
         <v>118</v>
       </c>
       <c r="H194" s="128">
-        <v>3001002</v>
+        <v>3002003</v>
       </c>
       <c r="I194" s="128" t="s">
         <v>119</v>
@@ -24089,18 +23577,18 @@
       </c>
       <c r="AY194" s="138"/>
       <c r="AZ194" s="128" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="195" s="66" customFormat="1" spans="1:52">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="195" spans="1:52" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A195" s="128">
-        <v>4073</v>
+        <v>4072</v>
       </c>
       <c r="B195" s="128">
-        <v>4073</v>
+        <v>4072</v>
       </c>
       <c r="C195" s="128" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D195" s="129"/>
       <c r="E195" s="128" t="s">
@@ -24112,7 +23600,9 @@
       <c r="G195" s="128" t="s">
         <v>118</v>
       </c>
-      <c r="H195" s="128"/>
+      <c r="H195" s="128">
+        <v>3001002</v>
+      </c>
       <c r="I195" s="128" t="s">
         <v>119</v>
       </c>
@@ -24173,18 +23663,18 @@
       </c>
       <c r="AY195" s="138"/>
       <c r="AZ195" s="128" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="196" s="66" customFormat="1" spans="1:52">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="196" spans="1:52" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A196" s="128">
-        <v>4074</v>
+        <v>4073</v>
       </c>
       <c r="B196" s="128">
-        <v>4074</v>
+        <v>4073</v>
       </c>
       <c r="C196" s="128" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D196" s="129"/>
       <c r="E196" s="128" t="s">
@@ -24196,9 +23686,7 @@
       <c r="G196" s="128" t="s">
         <v>118</v>
       </c>
-      <c r="H196" s="128">
-        <v>1001001</v>
-      </c>
+      <c r="H196" s="128"/>
       <c r="I196" s="128" t="s">
         <v>119</v>
       </c>
@@ -24259,18 +23747,18 @@
       </c>
       <c r="AY196" s="138"/>
       <c r="AZ196" s="128" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="197" s="66" customFormat="1" spans="1:52">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="197" spans="1:52" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A197" s="128">
-        <v>4075</v>
+        <v>4074</v>
       </c>
       <c r="B197" s="128">
-        <v>4075</v>
+        <v>4074</v>
       </c>
       <c r="C197" s="128" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D197" s="129"/>
       <c r="E197" s="128" t="s">
@@ -24283,7 +23771,7 @@
         <v>118</v>
       </c>
       <c r="H197" s="128">
-        <v>2002001</v>
+        <v>1001001</v>
       </c>
       <c r="I197" s="128" t="s">
         <v>119</v>
@@ -24345,85 +23833,104 @@
       </c>
       <c r="AY197" s="138"/>
       <c r="AZ197" s="128" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="198" spans="1:52" s="66" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A198" s="128">
+        <v>4075</v>
+      </c>
+      <c r="B198" s="128">
+        <v>4075</v>
+      </c>
+      <c r="C198" s="128" t="s">
+        <v>441</v>
+      </c>
+      <c r="D198" s="129"/>
+      <c r="E198" s="128" t="s">
+        <v>117</v>
+      </c>
+      <c r="F198" s="128">
+        <v>2</v>
+      </c>
+      <c r="G198" s="128" t="s">
+        <v>118</v>
+      </c>
+      <c r="H198" s="128">
+        <v>2002001</v>
+      </c>
+      <c r="I198" s="128" t="s">
+        <v>119</v>
+      </c>
+      <c r="J198" s="128"/>
+      <c r="K198" s="128" t="s">
+        <v>400</v>
+      </c>
+      <c r="L198" s="128">
+        <v>1</v>
+      </c>
+      <c r="M198" s="128">
+        <v>1</v>
+      </c>
+      <c r="N198" s="128">
+        <v>1</v>
+      </c>
+      <c r="O198" s="128">
+        <v>1</v>
+      </c>
+      <c r="P198" s="128">
+        <v>1</v>
+      </c>
+      <c r="Q198" s="128"/>
+      <c r="R198" s="66">
+        <v>3</v>
+      </c>
+      <c r="S198" s="66">
+        <v>1</v>
+      </c>
+      <c r="T198" s="66">
+        <v>0</v>
+      </c>
+      <c r="V198" s="128">
+        <v>10</v>
+      </c>
+      <c r="W198" s="128"/>
+      <c r="AD198" s="66">
+        <v>500</v>
+      </c>
+      <c r="AE198" s="66">
+        <v>1</v>
+      </c>
+      <c r="AF198" s="66">
+        <v>10</v>
+      </c>
+      <c r="AH198" s="66">
+        <v>10</v>
+      </c>
+      <c r="AK198" s="128"/>
+      <c r="AL198" s="128"/>
+      <c r="AR198" s="128"/>
+      <c r="AS198" s="137"/>
+      <c r="AW198" s="138">
+        <v>0</v>
+      </c>
+      <c r="AX198" s="138">
+        <v>1</v>
+      </c>
+      <c r="AY198" s="138"/>
+      <c r="AZ198" s="128" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="198" spans="1:52">
-      <c r="A198" s="16">
-        <v>1</v>
-      </c>
-      <c r="B198" s="16">
+    <row r="199" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A199" s="16">
+        <v>1</v>
+      </c>
+      <c r="B199" s="16">
         <v>101</v>
       </c>
-      <c r="C198" s="139" t="s">
+      <c r="C199" s="139" t="s">
         <v>443</v>
-      </c>
-      <c r="D198" s="140"/>
-      <c r="E198" s="79" t="s">
-        <v>117</v>
-      </c>
-      <c r="F198" s="139">
-        <v>2</v>
-      </c>
-      <c r="G198" s="79" t="s">
-        <v>118</v>
-      </c>
-      <c r="H198" s="139"/>
-      <c r="I198" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="K198" s="141" t="s">
-        <v>444</v>
-      </c>
-      <c r="L198" s="141">
-        <v>1</v>
-      </c>
-      <c r="M198" s="141">
-        <v>1</v>
-      </c>
-      <c r="N198" s="141">
-        <v>1</v>
-      </c>
-      <c r="O198" s="141">
-        <v>1</v>
-      </c>
-      <c r="P198" s="141">
-        <v>1</v>
-      </c>
-      <c r="Q198" s="141"/>
-      <c r="T198" s="142">
-        <v>1</v>
-      </c>
-      <c r="V198" s="16">
-        <v>10</v>
-      </c>
-      <c r="AD198">
-        <v>500</v>
-      </c>
-      <c r="AE198">
-        <v>1</v>
-      </c>
-      <c r="AF198">
-        <v>10</v>
-      </c>
-      <c r="AW198" s="57">
-        <v>0</v>
-      </c>
-      <c r="AX198" s="57"/>
-      <c r="AY198" s="57"/>
-      <c r="AZ198" s="139" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="199" spans="1:52">
-      <c r="A199" s="16">
-        <v>2</v>
-      </c>
-      <c r="B199" s="16">
-        <v>102</v>
-      </c>
-      <c r="C199" s="139" t="s">
-        <v>445</v>
       </c>
       <c r="D199" s="140"/>
       <c r="E199" s="79" t="s">
@@ -24479,18 +23986,18 @@
       <c r="AX199" s="57"/>
       <c r="AY199" s="57"/>
       <c r="AZ199" s="139" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="200" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A200" s="16">
+        <v>2</v>
+      </c>
+      <c r="B200" s="16">
+        <v>102</v>
+      </c>
+      <c r="C200" s="139" t="s">
         <v>445</v>
-      </c>
-    </row>
-    <row r="200" spans="1:52">
-      <c r="A200" s="16">
-        <v>3</v>
-      </c>
-      <c r="B200" s="16">
-        <v>103</v>
-      </c>
-      <c r="C200" s="139" t="s">
-        <v>446</v>
       </c>
       <c r="D200" s="140"/>
       <c r="E200" s="79" t="s">
@@ -24546,18 +24053,18 @@
       <c r="AX200" s="57"/>
       <c r="AY200" s="57"/>
       <c r="AZ200" s="139" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="201" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A201" s="16">
+        <v>3</v>
+      </c>
+      <c r="B201" s="16">
+        <v>103</v>
+      </c>
+      <c r="C201" s="139" t="s">
         <v>446</v>
-      </c>
-    </row>
-    <row r="201" spans="1:52">
-      <c r="A201" s="16">
-        <v>4</v>
-      </c>
-      <c r="B201" s="16">
-        <v>104</v>
-      </c>
-      <c r="C201" s="139" t="s">
-        <v>447</v>
       </c>
       <c r="D201" s="140"/>
       <c r="E201" s="79" t="s">
@@ -24613,18 +24120,18 @@
       <c r="AX201" s="57"/>
       <c r="AY201" s="57"/>
       <c r="AZ201" s="139" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="202" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A202" s="16">
+        <v>4</v>
+      </c>
+      <c r="B202" s="16">
+        <v>104</v>
+      </c>
+      <c r="C202" s="139" t="s">
         <v>447</v>
-      </c>
-    </row>
-    <row r="202" spans="1:52">
-      <c r="A202" s="16">
-        <v>5</v>
-      </c>
-      <c r="B202" s="16">
-        <v>105</v>
-      </c>
-      <c r="C202" s="139" t="s">
-        <v>448</v>
       </c>
       <c r="D202" s="140"/>
       <c r="E202" s="79" t="s">
@@ -24680,18 +24187,18 @@
       <c r="AX202" s="57"/>
       <c r="AY202" s="57"/>
       <c r="AZ202" s="139" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="203" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A203" s="16">
+        <v>5</v>
+      </c>
+      <c r="B203" s="16">
+        <v>105</v>
+      </c>
+      <c r="C203" s="139" t="s">
         <v>448</v>
-      </c>
-    </row>
-    <row r="203" spans="1:52">
-      <c r="A203" s="16">
-        <v>6</v>
-      </c>
-      <c r="B203" s="16">
-        <v>106</v>
-      </c>
-      <c r="C203" s="139" t="s">
-        <v>449</v>
       </c>
       <c r="D203" s="140"/>
       <c r="E203" s="79" t="s">
@@ -24747,18 +24254,18 @@
       <c r="AX203" s="57"/>
       <c r="AY203" s="57"/>
       <c r="AZ203" s="139" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="204" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A204" s="16">
+        <v>6</v>
+      </c>
+      <c r="B204" s="16">
+        <v>106</v>
+      </c>
+      <c r="C204" s="139" t="s">
         <v>449</v>
-      </c>
-    </row>
-    <row r="204" spans="1:52">
-      <c r="A204" s="16">
-        <v>7</v>
-      </c>
-      <c r="B204" s="16">
-        <v>107</v>
-      </c>
-      <c r="C204" s="139" t="s">
-        <v>450</v>
       </c>
       <c r="D204" s="140"/>
       <c r="E204" s="79" t="s">
@@ -24814,29 +24321,95 @@
       <c r="AX204" s="57"/>
       <c r="AY204" s="57"/>
       <c r="AZ204" s="139" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="205" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A205" s="16">
+        <v>7</v>
+      </c>
+      <c r="B205" s="16">
+        <v>107</v>
+      </c>
+      <c r="C205" s="139" t="s">
         <v>450</v>
       </c>
+      <c r="D205" s="140"/>
+      <c r="E205" s="79" t="s">
+        <v>117</v>
+      </c>
+      <c r="F205" s="139">
+        <v>2</v>
+      </c>
+      <c r="G205" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="H205" s="139"/>
+      <c r="I205" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="K205" s="141" t="s">
+        <v>444</v>
+      </c>
+      <c r="L205" s="141">
+        <v>1</v>
+      </c>
+      <c r="M205" s="141">
+        <v>1</v>
+      </c>
+      <c r="N205" s="141">
+        <v>1</v>
+      </c>
+      <c r="O205" s="141">
+        <v>1</v>
+      </c>
+      <c r="P205" s="141">
+        <v>1</v>
+      </c>
+      <c r="Q205" s="141"/>
+      <c r="T205" s="142">
+        <v>1</v>
+      </c>
+      <c r="V205" s="16">
+        <v>10</v>
+      </c>
+      <c r="AD205">
+        <v>500</v>
+      </c>
+      <c r="AE205">
+        <v>1</v>
+      </c>
+      <c r="AF205">
+        <v>10</v>
+      </c>
+      <c r="AW205" s="57">
+        <v>0</v>
+      </c>
+      <c r="AX205" s="57"/>
+      <c r="AY205" s="57"/>
+      <c r="AZ205" s="139" t="s">
+        <v>450</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="8.875" style="1" customWidth="1"/>
@@ -24847,7 +24420,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -24865,7 +24438,7 @@
       </c>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>51</v>
       </c>
@@ -24883,7 +24456,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>101</v>
       </c>
@@ -24901,7 +24474,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -24918,7 +24491,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -24935,7 +24508,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -24952,7 +24525,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -24969,7 +24542,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -24986,7 +24559,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -25004,7 +24577,7 @@
       </c>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -25022,7 +24595,7 @@
       </c>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" s="27" customFormat="1" spans="1:6">
+    <row r="11" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="27">
         <v>8</v>
       </c>
@@ -25040,7 +24613,7 @@
       </c>
       <c r="F11" s="39"/>
     </row>
-    <row r="12" s="27" customFormat="1" spans="1:5">
+    <row r="12" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="27">
         <v>9</v>
       </c>
@@ -25057,7 +24630,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -25074,7 +24647,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -25091,7 +24664,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -25108,7 +24681,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -25125,7 +24698,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -25142,7 +24715,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -25159,7 +24732,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="19" s="27" customFormat="1" spans="1:5">
+    <row r="19" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="27">
         <v>16</v>
       </c>
@@ -25176,7 +24749,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="20" s="27" customFormat="1" spans="1:5">
+    <row r="20" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="27">
         <v>17</v>
       </c>
@@ -25193,7 +24766,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="21" s="27" customFormat="1" spans="1:5">
+    <row r="21" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="27">
         <v>18</v>
       </c>
@@ -25210,7 +24783,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="22" s="27" customFormat="1" spans="1:5">
+    <row r="22" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="27">
         <v>19</v>
       </c>
@@ -25227,7 +24800,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="23" s="27" customFormat="1" spans="1:5">
+    <row r="23" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="27">
         <v>20</v>
       </c>
@@ -25244,7 +24817,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="24" s="27" customFormat="1" spans="1:5">
+    <row r="24" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="27">
         <v>21</v>
       </c>
@@ -25261,7 +24834,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="25" s="28" customFormat="1" spans="1:5">
+    <row r="25" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="28">
         <v>1000</v>
       </c>
@@ -25278,7 +24851,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="26" s="28" customFormat="1" spans="1:5">
+    <row r="26" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="28">
         <v>1001</v>
       </c>
@@ -25295,7 +24868,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="27" s="28" customFormat="1" spans="1:5">
+    <row r="27" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="28">
         <v>1002</v>
       </c>
@@ -25312,7 +24885,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="28" s="28" customFormat="1" spans="1:5">
+    <row r="28" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="28">
         <v>1003</v>
       </c>
@@ -25329,7 +24902,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="29" s="29" customFormat="1" spans="1:5">
+    <row r="29" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="29">
         <v>1004</v>
       </c>
@@ -25346,7 +24919,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="30" s="29" customFormat="1" spans="1:5">
+    <row r="30" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="29">
         <v>1005</v>
       </c>
@@ -25363,7 +24936,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="31" s="29" customFormat="1" spans="1:5">
+    <row r="31" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="29">
         <v>1006</v>
       </c>
@@ -25380,7 +24953,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="32" s="29" customFormat="1" spans="1:5">
+    <row r="32" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="29">
         <v>1007</v>
       </c>
@@ -25397,7 +24970,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="33" s="30" customFormat="1" spans="1:5">
+    <row r="33" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="30">
         <v>1008</v>
       </c>
@@ -25414,7 +24987,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="34" s="30" customFormat="1" spans="1:5">
+    <row r="34" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="30">
         <v>1009</v>
       </c>
@@ -25431,7 +25004,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="35" s="30" customFormat="1" spans="1:5">
+    <row r="35" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="30">
         <v>1010</v>
       </c>
@@ -25448,7 +25021,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="36" s="30" customFormat="1" spans="1:5">
+    <row r="36" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="30">
         <v>1011</v>
       </c>
@@ -25465,7 +25038,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="37" s="30" customFormat="1" spans="1:5">
+    <row r="37" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="30">
         <v>1012</v>
       </c>
@@ -25482,7 +25055,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="38" s="31" customFormat="1" spans="1:5">
+    <row r="38" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="31">
         <v>2001</v>
       </c>
@@ -25499,7 +25072,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="39" s="31" customFormat="1" spans="1:6">
+    <row r="39" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="31">
         <v>2002</v>
       </c>
@@ -25521,7 +25094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" s="31" customFormat="1" spans="1:5">
+    <row r="40" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="31">
         <v>2003</v>
       </c>
@@ -25538,7 +25111,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="41" s="31" customFormat="1" spans="1:5">
+    <row r="41" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="31">
         <v>2005</v>
       </c>
@@ -25555,7 +25128,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="42" s="31" customFormat="1" spans="1:6">
+    <row r="42" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="31">
         <v>2006</v>
       </c>
@@ -25577,7 +25150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" s="31" customFormat="1" spans="1:5">
+    <row r="43" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="31">
         <v>2007</v>
       </c>
@@ -25594,7 +25167,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="44" s="31" customFormat="1" spans="1:5">
+    <row r="44" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="31">
         <v>2009</v>
       </c>
@@ -25611,7 +25184,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="45" s="31" customFormat="1" spans="1:5">
+    <row r="45" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="31">
         <v>2010</v>
       </c>
@@ -25628,7 +25201,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="46" s="31" customFormat="1" spans="1:6">
+    <row r="46" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="31">
         <v>2013</v>
       </c>
@@ -25650,7 +25223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" s="31" customFormat="1" spans="1:5">
+    <row r="47" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="31">
         <v>2014</v>
       </c>
@@ -25667,7 +25240,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="48" s="31" customFormat="1" spans="1:6">
+    <row r="48" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="31">
         <v>2015</v>
       </c>
@@ -25689,7 +25262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" s="31" customFormat="1" spans="1:5">
+    <row r="49" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="31">
         <v>2017</v>
       </c>
@@ -25706,7 +25279,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="50" s="31" customFormat="1" spans="1:6">
+    <row r="50" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="31">
         <v>2018</v>
       </c>
@@ -25728,7 +25301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" s="31" customFormat="1" spans="1:5">
+    <row r="51" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="31">
         <v>2019</v>
       </c>
@@ -25745,7 +25318,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="52" s="31" customFormat="1" spans="1:5">
+    <row r="52" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="31">
         <v>2020</v>
       </c>
@@ -25762,7 +25335,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="53" s="31" customFormat="1" spans="1:6">
+    <row r="53" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="31">
         <v>2021</v>
       </c>
@@ -25784,7 +25357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" s="31" customFormat="1" spans="1:5">
+    <row r="54" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="31">
         <v>2022</v>
       </c>
@@ -25801,7 +25374,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="55" s="31" customFormat="1" spans="1:5">
+    <row r="55" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="31">
         <v>2023</v>
       </c>
@@ -25818,7 +25391,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="56" s="31" customFormat="1" spans="1:5">
+    <row r="56" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="31">
         <v>2024</v>
       </c>
@@ -25835,7 +25408,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="57" s="31" customFormat="1" spans="1:6">
+    <row r="57" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="31">
         <v>2027</v>
       </c>
@@ -25857,7 +25430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" s="31" customFormat="1" spans="1:5">
+    <row r="58" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="31">
         <v>2030</v>
       </c>
@@ -25874,7 +25447,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="59" s="31" customFormat="1" spans="1:5">
+    <row r="59" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="31">
         <v>2031</v>
       </c>
@@ -25891,7 +25464,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="60" s="31" customFormat="1" spans="1:5">
+    <row r="60" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="31">
         <v>2034</v>
       </c>
@@ -25908,7 +25481,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="61" s="31" customFormat="1" spans="1:6">
+    <row r="61" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="31">
         <v>2035</v>
       </c>
@@ -25930,7 +25503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" s="31" customFormat="1" spans="1:5">
+    <row r="62" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="31">
         <v>2038</v>
       </c>
@@ -25947,7 +25520,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="63" s="31" customFormat="1" spans="1:5">
+    <row r="63" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="31">
         <v>2039</v>
       </c>
@@ -25964,7 +25537,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="64" s="32" customFormat="1" spans="1:5">
+    <row r="64" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="32">
         <v>2101</v>
       </c>
@@ -25981,7 +25554,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="65" s="32" customFormat="1" spans="1:5">
+    <row r="65" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65" s="32">
         <v>2102</v>
       </c>
@@ -25998,7 +25571,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="66" s="32" customFormat="1" ht="12.75" customHeight="1" spans="1:6">
+    <row r="66" spans="1:6" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="32">
         <v>2103</v>
       </c>
@@ -26020,7 +25593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" s="32" customFormat="1" spans="1:5">
+    <row r="67" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67" s="32">
         <v>2104</v>
       </c>
@@ -26037,7 +25610,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="68" s="32" customFormat="1" spans="1:5">
+    <row r="68" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68" s="32">
         <v>2105</v>
       </c>
@@ -26054,7 +25627,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="69" s="32" customFormat="1" spans="1:5">
+    <row r="69" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="32">
         <v>2106</v>
       </c>
@@ -26071,7 +25644,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="70" s="32" customFormat="1" spans="1:5">
+    <row r="70" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="32">
         <v>2107</v>
       </c>
@@ -26088,7 +25661,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="71" s="32" customFormat="1" spans="1:6">
+    <row r="71" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="32">
         <v>2108</v>
       </c>
@@ -26110,7 +25683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" s="32" customFormat="1" spans="1:5">
+    <row r="72" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A72" s="32">
         <v>2109</v>
       </c>
@@ -26127,7 +25700,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="73" s="32" customFormat="1" spans="1:5">
+    <row r="73" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A73" s="32">
         <v>2110</v>
       </c>
@@ -26144,7 +25717,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="74" s="32" customFormat="1" spans="1:5">
+    <row r="74" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="32">
         <v>2112</v>
       </c>
@@ -26161,7 +25734,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="75" s="32" customFormat="1" spans="1:6">
+    <row r="75" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="32">
         <v>2113</v>
       </c>
@@ -26183,7 +25756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" s="32" customFormat="1" spans="1:5">
+    <row r="76" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76" s="32">
         <v>2115</v>
       </c>
@@ -26200,7 +25773,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="77" s="32" customFormat="1" spans="1:5">
+    <row r="77" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77" s="32">
         <v>2116</v>
       </c>
@@ -26217,7 +25790,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="78" s="32" customFormat="1" spans="1:6">
+    <row r="78" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" s="32">
         <v>2118</v>
       </c>
@@ -26239,7 +25812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" s="32" customFormat="1" spans="1:5">
+    <row r="79" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="32">
         <v>2119</v>
       </c>
@@ -26256,7 +25829,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="80" s="32" customFormat="1" spans="1:5">
+    <row r="80" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="32">
         <v>2120</v>
       </c>
@@ -26273,7 +25846,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="81" s="32" customFormat="1" spans="1:5">
+    <row r="81" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="32">
         <v>2122</v>
       </c>
@@ -26290,7 +25863,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="82" s="32" customFormat="1" spans="1:6">
+    <row r="82" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="32">
         <v>2123</v>
       </c>
@@ -26312,7 +25885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" s="32" customFormat="1" spans="1:5">
+    <row r="83" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="32">
         <v>2124</v>
       </c>
@@ -26329,7 +25902,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="84" s="32" customFormat="1" spans="1:5">
+    <row r="84" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="32">
         <v>2126</v>
       </c>
@@ -26346,7 +25919,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="85" s="32" customFormat="1" spans="1:5">
+    <row r="85" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="32">
         <v>2127</v>
       </c>
@@ -26363,7 +25936,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="86" s="32" customFormat="1" spans="1:5">
+    <row r="86" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86" s="32">
         <v>2128</v>
       </c>
@@ -26380,7 +25953,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="87" s="32" customFormat="1" spans="1:5">
+    <row r="87" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A87" s="32">
         <v>2131</v>
       </c>
@@ -26397,7 +25970,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="88" s="32" customFormat="1" spans="1:5">
+    <row r="88" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="32">
         <v>2132</v>
       </c>
@@ -26414,7 +25987,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="89" s="32" customFormat="1" spans="1:5">
+    <row r="89" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="32">
         <v>2133</v>
       </c>
@@ -26431,7 +26004,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="90" s="32" customFormat="1" spans="1:5">
+    <row r="90" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A90" s="32">
         <v>2134</v>
       </c>
@@ -26448,7 +26021,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="91" s="31" customFormat="1" spans="1:5">
+    <row r="91" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="31">
         <v>2201</v>
       </c>
@@ -26465,7 +26038,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="92" s="31" customFormat="1" spans="1:5">
+    <row r="92" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="31">
         <v>2202</v>
       </c>
@@ -26482,7 +26055,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="93" s="31" customFormat="1" spans="1:5">
+    <row r="93" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="31">
         <v>2203</v>
       </c>
@@ -26499,7 +26072,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="94" s="31" customFormat="1" spans="1:5">
+    <row r="94" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94" s="31">
         <v>2204</v>
       </c>
@@ -26516,7 +26089,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="95" s="31" customFormat="1" spans="1:5">
+    <row r="95" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95" s="31">
         <v>2205</v>
       </c>
@@ -26533,7 +26106,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="96" s="31" customFormat="1" spans="1:5">
+    <row r="96" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="31">
         <v>2207</v>
       </c>
@@ -26550,7 +26123,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="97" s="31" customFormat="1" spans="1:5">
+    <row r="97" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="31">
         <v>2208</v>
       </c>
@@ -26567,7 +26140,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="98" s="31" customFormat="1" spans="1:5">
+    <row r="98" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98" s="31">
         <v>2209</v>
       </c>
@@ -26584,7 +26157,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="99" s="31" customFormat="1" spans="1:5">
+    <row r="99" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99" s="31">
         <v>2211</v>
       </c>
@@ -26601,7 +26174,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="100" s="31" customFormat="1" spans="1:5">
+    <row r="100" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="31">
         <v>2212</v>
       </c>
@@ -26618,7 +26191,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="101" s="31" customFormat="1" spans="1:5">
+    <row r="101" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101" s="31">
         <v>2214</v>
       </c>
@@ -26635,7 +26208,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="102" s="31" customFormat="1" spans="1:5">
+    <row r="102" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102" s="31">
         <v>2218</v>
       </c>
@@ -26652,7 +26225,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="103" s="31" customFormat="1" spans="1:5">
+    <row r="103" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A103" s="31">
         <v>2220</v>
       </c>
@@ -26669,7 +26242,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="104" s="31" customFormat="1" spans="1:5">
+    <row r="104" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104" s="31">
         <v>2221</v>
       </c>
@@ -26686,7 +26259,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="105" s="31" customFormat="1" spans="1:5">
+    <row r="105" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105" s="31">
         <v>2224</v>
       </c>
@@ -26703,7 +26276,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="106" s="31" customFormat="1" spans="1:5">
+    <row r="106" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A106" s="31">
         <v>2226</v>
       </c>
@@ -26720,7 +26293,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="107" s="31" customFormat="1" spans="1:5">
+    <row r="107" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="31">
         <v>2227</v>
       </c>
@@ -26737,7 +26310,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="108" s="31" customFormat="1" spans="1:5">
+    <row r="108" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A108" s="31">
         <v>2230</v>
       </c>
@@ -26754,7 +26327,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="109" s="31" customFormat="1" spans="1:5">
+    <row r="109" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A109" s="31">
         <v>2232</v>
       </c>
@@ -26771,7 +26344,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="110" s="31" customFormat="1" spans="1:5">
+    <row r="110" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110" s="31">
         <v>2233</v>
       </c>
@@ -26788,7 +26361,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="111" s="11" customFormat="1" spans="1:5">
+    <row r="111" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111" s="11">
         <v>3101</v>
       </c>
@@ -26805,7 +26378,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="112" s="11" customFormat="1" spans="1:5">
+    <row r="112" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A112" s="11">
         <v>3102</v>
       </c>
@@ -26822,7 +26395,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="113" s="11" customFormat="1" spans="1:5">
+    <row r="113" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A113" s="11">
         <v>3103</v>
       </c>
@@ -26839,7 +26412,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="114" s="11" customFormat="1" spans="1:5">
+    <row r="114" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A114" s="11">
         <v>3111</v>
       </c>
@@ -26856,7 +26429,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="115" s="11" customFormat="1" spans="1:5">
+    <row r="115" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A115" s="11">
         <v>3112</v>
       </c>
@@ -26873,7 +26446,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="116" s="11" customFormat="1" spans="1:5">
+    <row r="116" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A116" s="11">
         <v>3113</v>
       </c>
@@ -26890,7 +26463,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="117" s="11" customFormat="1" spans="1:5">
+    <row r="117" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A117" s="11">
         <v>3121</v>
       </c>
@@ -26907,7 +26480,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="118" s="11" customFormat="1" spans="1:5">
+    <row r="118" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A118" s="11">
         <v>3122</v>
       </c>
@@ -26924,7 +26497,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="119" s="11" customFormat="1" spans="1:5">
+    <row r="119" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A119" s="11">
         <v>3123</v>
       </c>
@@ -26941,7 +26514,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="120" s="11" customFormat="1" spans="1:5">
+    <row r="120" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A120" s="11">
         <v>3131</v>
       </c>
@@ -26958,7 +26531,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="121" s="11" customFormat="1" spans="1:5">
+    <row r="121" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A121" s="11">
         <v>3132</v>
       </c>
@@ -26975,7 +26548,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="122" s="11" customFormat="1" spans="1:5">
+    <row r="122" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A122" s="11">
         <v>3133</v>
       </c>
@@ -26992,7 +26565,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="123" s="11" customFormat="1" spans="1:5">
+    <row r="123" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A123" s="11">
         <v>3141</v>
       </c>
@@ -27009,7 +26582,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="124" s="11" customFormat="1" spans="1:5">
+    <row r="124" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A124" s="11">
         <v>3142</v>
       </c>
@@ -27026,7 +26599,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="125" s="11" customFormat="1" spans="1:5">
+    <row r="125" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A125" s="11">
         <v>3143</v>
       </c>
@@ -27043,7 +26616,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="126" s="11" customFormat="1" spans="1:5">
+    <row r="126" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A126" s="11">
         <v>3151</v>
       </c>
@@ -27060,7 +26633,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="127" s="11" customFormat="1" spans="1:5">
+    <row r="127" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A127" s="11">
         <v>3152</v>
       </c>
@@ -27077,7 +26650,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="128" s="11" customFormat="1" spans="1:5">
+    <row r="128" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A128" s="11">
         <v>3153</v>
       </c>
@@ -27094,7 +26667,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="129" s="11" customFormat="1" spans="1:6">
+    <row r="129" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A129" s="11">
         <v>3161</v>
       </c>
@@ -27112,7 +26685,7 @@
       </c>
       <c r="F129" s="12"/>
     </row>
-    <row r="130" s="11" customFormat="1" spans="1:5">
+    <row r="130" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A130" s="11">
         <v>3162</v>
       </c>
@@ -27129,7 +26702,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="131" s="11" customFormat="1" spans="1:5">
+    <row r="131" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A131" s="11">
         <v>3163</v>
       </c>
@@ -27146,7 +26719,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="132" s="33" customFormat="1" spans="1:5">
+    <row r="132" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A132" s="33">
         <v>3201</v>
       </c>
@@ -27163,7 +26736,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="133" s="33" customFormat="1" spans="1:5">
+    <row r="133" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A133" s="33">
         <v>3202</v>
       </c>
@@ -27180,7 +26753,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="134" s="33" customFormat="1" spans="1:5">
+    <row r="134" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A134" s="33">
         <v>3203</v>
       </c>
@@ -27197,7 +26770,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="135" s="33" customFormat="1" spans="1:5">
+    <row r="135" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A135" s="33">
         <v>3211</v>
       </c>
@@ -27214,7 +26787,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="136" s="33" customFormat="1" spans="1:5">
+    <row r="136" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A136" s="33">
         <v>3212</v>
       </c>
@@ -27231,7 +26804,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="137" s="33" customFormat="1" spans="1:5">
+    <row r="137" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A137" s="33">
         <v>3213</v>
       </c>
@@ -27248,7 +26821,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="138" s="33" customFormat="1" spans="1:5">
+    <row r="138" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A138" s="33">
         <v>3221</v>
       </c>
@@ -27265,7 +26838,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="139" s="33" customFormat="1" spans="1:5">
+    <row r="139" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A139" s="33">
         <v>3222</v>
       </c>
@@ -27282,7 +26855,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="140" s="33" customFormat="1" spans="1:5">
+    <row r="140" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A140" s="33">
         <v>3223</v>
       </c>
@@ -27299,7 +26872,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="141" s="33" customFormat="1" spans="1:5">
+    <row r="141" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141" s="33">
         <v>3231</v>
       </c>
@@ -27316,7 +26889,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="142" s="33" customFormat="1" spans="1:5">
+    <row r="142" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142" s="33">
         <v>3232</v>
       </c>
@@ -27333,7 +26906,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="143" s="33" customFormat="1" spans="1:5">
+    <row r="143" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A143" s="33">
         <v>3233</v>
       </c>
@@ -27350,7 +26923,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="144" s="33" customFormat="1" spans="1:5">
+    <row r="144" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A144" s="33">
         <v>3241</v>
       </c>
@@ -27367,7 +26940,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="145" s="33" customFormat="1" spans="1:5">
+    <row r="145" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A145" s="33">
         <v>3242</v>
       </c>
@@ -27384,7 +26957,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="146" s="33" customFormat="1" spans="1:5">
+    <row r="146" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A146" s="33">
         <v>3243</v>
       </c>
@@ -27401,7 +26974,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="147" s="33" customFormat="1" spans="1:5">
+    <row r="147" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A147" s="33">
         <v>3251</v>
       </c>
@@ -27418,7 +26991,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="148" s="33" customFormat="1" spans="1:5">
+    <row r="148" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A148" s="33">
         <v>3252</v>
       </c>
@@ -27435,7 +27008,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="149" s="33" customFormat="1" spans="1:5">
+    <row r="149" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A149" s="33">
         <v>3253</v>
       </c>
@@ -27452,7 +27025,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="150" s="33" customFormat="1" spans="1:5">
+    <row r="150" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A150" s="33">
         <v>3261</v>
       </c>
@@ -27469,7 +27042,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="151" s="33" customFormat="1" spans="1:5">
+    <row r="151" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A151" s="33">
         <v>3262</v>
       </c>
@@ -27486,7 +27059,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="152" s="33" customFormat="1" spans="1:5">
+    <row r="152" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A152" s="33">
         <v>3263</v>
       </c>
@@ -27504,18 +27077,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F152">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:F152"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3">
     <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
@@ -27525,7 +27096,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="21"/>
     <col min="3" max="3" width="11.5" style="21" customWidth="1"/>
@@ -27537,7 +27108,7 @@
     <col min="9" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -27563,7 +27134,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="24" t="s">
         <v>51</v>
       </c>
@@ -27589,7 +27160,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
         <v>101</v>
       </c>
@@ -27615,42 +27186,42 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" s="20" customFormat="1" spans="1:7">
+    <row r="4" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" s="20" customFormat="1" spans="1:7">
+    <row r="5" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="26"/>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" s="20" customFormat="1" spans="1:7">
+    <row r="6" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="26"/>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="26"/>
       <c r="B7" s="26"/>
       <c r="G7" s="19"/>
       <c r="H7" s="20"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M38"/>
   <sheetViews>
@@ -27658,13 +27229,13 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="20.375" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -27678,7 +27249,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>51</v>
       </c>
@@ -27692,7 +27263,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>101</v>
       </c>
@@ -27706,7 +27277,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
         <v>108</v>
       </c>
@@ -27716,7 +27287,7 @@
       <c r="C4" s="13"/>
       <c r="D4" s="15"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -27730,7 +27301,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="16">
         <v>2</v>
       </c>
@@ -27744,7 +27315,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="16">
         <v>3</v>
       </c>
@@ -27758,7 +27329,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="16">
         <v>4</v>
       </c>
@@ -27772,7 +27343,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="16">
         <v>5</v>
       </c>
@@ -27786,7 +27357,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="16">
         <v>6</v>
       </c>
@@ -27800,117 +27371,117 @@
         <v>529</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="18"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="18"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="18"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="18"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="4:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D17" s="18"/>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D18" s="18"/>
     </row>
-    <row r="19" spans="4:4">
+    <row r="19" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D19" s="18"/>
     </row>
-    <row r="20" spans="4:13">
+    <row r="20" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D20" s="18"/>
       <c r="M20" s="19" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="21" spans="4:4">
+    <row r="21" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D21" s="18"/>
     </row>
-    <row r="22" spans="4:4">
+    <row r="22" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D22" s="18"/>
     </row>
-    <row r="23" spans="4:4">
+    <row r="23" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D23" s="18"/>
     </row>
-    <row r="24" spans="4:4">
+    <row r="24" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D24" s="18"/>
     </row>
-    <row r="25" spans="4:4">
+    <row r="25" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D25" s="18"/>
     </row>
-    <row r="26" spans="4:4">
+    <row r="26" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D26" s="18"/>
     </row>
-    <row r="27" spans="4:4">
+    <row r="27" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D27" s="18"/>
     </row>
-    <row r="28" spans="4:4">
+    <row r="28" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D28" s="18"/>
     </row>
-    <row r="29" spans="4:4">
+    <row r="29" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D29" s="18"/>
     </row>
-    <row r="30" spans="4:4">
+    <row r="30" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D30" s="18"/>
     </row>
-    <row r="31" spans="4:4">
+    <row r="31" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D31" s="18"/>
     </row>
-    <row r="32" spans="4:4">
+    <row r="32" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D32" s="18"/>
     </row>
-    <row r="33" spans="4:4">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D33" s="18"/>
     </row>
-    <row r="34" spans="4:4">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D34" s="18"/>
     </row>
-    <row r="35" spans="4:4">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D35" s="18"/>
     </row>
-    <row r="36" spans="4:4">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D36" s="18"/>
     </row>
-    <row r="37" spans="4:4">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D37" s="18"/>
     </row>
-    <row r="38" spans="4:4">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D38" s="18"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -27918,7 +27489,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="45.5" style="1" customWidth="1"/>
@@ -27926,7 +27497,7 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>531</v>
       </c>
@@ -27937,17 +27508,17 @@
         <v>532</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -27958,7 +27529,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -27969,7 +27540,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -27980,7 +27551,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -27994,7 +27565,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -28008,7 +27579,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -28022,7 +27593,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>6</v>
       </c>
@@ -28036,7 +27607,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>7</v>
       </c>
@@ -28047,7 +27618,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>8</v>
       </c>
@@ -28058,7 +27629,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -28069,7 +27640,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -28080,7 +27651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -28091,7 +27662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="11">
         <v>12</v>
       </c>
@@ -28102,7 +27673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="11">
         <v>13</v>
       </c>
@@ -28113,7 +27684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="11">
         <v>14</v>
       </c>
@@ -28124,7 +27695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
         <v>15</v>
       </c>
@@ -28135,7 +27706,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="11">
         <v>16</v>
       </c>
@@ -28146,7 +27717,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>17</v>
       </c>
@@ -28157,7 +27728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="11">
         <v>18</v>
       </c>
@@ -28168,7 +27739,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
         <v>19</v>
       </c>
@@ -28179,7 +27750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="11">
         <v>20</v>
       </c>
@@ -28190,7 +27761,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="11">
         <v>21</v>
       </c>
@@ -28202,7 +27773,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/mobi_client/mobi_client/mobi_config/excel/关卡表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/关卡表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOBI\mobi_client\mobi_config\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="14340"/>
+    <workbookView windowWidth="28125" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Stage" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">StageChallenge!$A$1:$F$152</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -32,13 +27,12 @@
     <author>tesrt</author>
   </authors>
   <commentList>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">1：装备副本
@@ -50,14 +44,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="1" shapeId="0">
+    <comment ref="T1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>tesrt:</t>
@@ -66,7 +59,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -86,14 +78,13 @@
     <author>ADMIN</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>ADMIN:</t>
@@ -102,7 +93,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -125,14 +115,13 @@
     <author>tesrt</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>1：坚持固定回合数（大于）
@@ -406,7 +395,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>first</t>
@@ -417,7 +405,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_drop</t>
@@ -485,7 +472,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>a</t>
@@ -494,7 +480,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>aint</t>
@@ -505,7 +490,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>i</t>
@@ -514,7 +498,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>nt</t>
@@ -604,7 +587,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -615,7 +597,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -626,7 +607,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -645,7 +625,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -656,7 +635,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -667,7 +645,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -678,7 +655,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -689,7 +665,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -700,7 +675,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -731,7 +705,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -742,7 +715,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -753,7 +725,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -772,7 +743,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -783,7 +753,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -799,7 +768,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -810,7 +778,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -821,7 +788,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -837,7 +803,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -848,7 +813,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -861,7 +825,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -872,7 +835,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -883,7 +845,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -899,7 +860,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -910,7 +870,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -921,7 +880,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -940,7 +898,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -951,7 +908,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -962,7 +918,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -999,7 +954,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1010,7 +964,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1062,7 +1015,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1073,7 +1025,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1084,7 +1035,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1124,7 +1074,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1135,7 +1084,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1630,7 +1578,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1641,7 +1588,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1652,7 +1598,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1663,7 +1608,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1674,7 +1618,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1685,7 +1628,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1696,7 +1638,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1721,7 +1662,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1734,7 +1674,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1745,7 +1684,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1756,7 +1694,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1767,7 +1704,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1778,7 +1714,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1789,7 +1724,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1814,7 +1748,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1825,7 +1758,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1836,7 +1768,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1847,7 +1778,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1858,7 +1788,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1869,7 +1798,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1894,7 +1822,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1905,7 +1832,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1916,7 +1842,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1927,7 +1852,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1938,7 +1862,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1949,7 +1872,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1971,7 +1893,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1982,7 +1903,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1995,7 +1915,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2006,7 +1925,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2017,7 +1935,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2028,7 +1945,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2039,7 +1955,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2050,7 +1965,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2069,7 +1983,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2080,7 +1993,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2093,7 +2005,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2104,7 +2015,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2115,7 +2025,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2126,7 +2035,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2137,7 +2045,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2148,7 +2055,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2351,6 +2257,9 @@
     <t>支线-涂鸦爆弹（巡）</t>
   </si>
   <si>
+    <t>支线-碎雨（巡）</t>
+  </si>
+  <si>
     <t>支线-追捕404分身1</t>
   </si>
   <si>
@@ -2647,7 +2556,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2658,7 +2566,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2764,16 +2671,18 @@
   <si>
     <t>1回合内，击杀最后一波敌人数量</t>
   </si>
-  <si>
-    <t>支线-碎雨（巡）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2785,7 +2694,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2794,7 +2702,6 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2802,44 +2709,176 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="27">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2860,25 +2899,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.3979613635670034"/>
+        <fgColor theme="3" tint="0.397961363567003"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.349986266670736"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.0999786370433668"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2890,7 +2929,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.3979918820764794"/>
+        <fgColor theme="3" tint="0.397991882076479"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2902,43 +2941,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.7993408001953185"/>
+        <fgColor theme="6" tint="0.799340800195319"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.3987853633228553"/>
+        <fgColor theme="9" tint="0.398785363322855"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.7993408001953185"/>
+        <fgColor theme="9" tint="0.799340800195319"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.7993408001953185"/>
+        <fgColor theme="3" tint="0.799340800195319"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79973754081850645"/>
+        <fgColor theme="9" tint="0.799737540818506"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.7993408001953185"/>
+        <fgColor theme="8" tint="0.799340800195319"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39970091860713525"/>
+        <fgColor theme="6" tint="0.399700918607135"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2950,25 +2989,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79946287423322249"/>
+        <fgColor theme="6" tint="0.799462874233222"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79970702230903046"/>
+        <fgColor theme="4" tint="0.79970702230903"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39970091860713525"/>
+        <fgColor theme="4" tint="0.399700918607135"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2980,24 +3019,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.3979308450575274"/>
+        <fgColor theme="3" tint="0.397930845057527"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79973754081850645"/>
+        <fgColor theme="6" tint="0.799737540818506"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39973143711661124"/>
+        <fgColor theme="6" tint="0.399731437116611"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -3029,12 +3254,254 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -3051,40 +3518,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="50" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="50" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="2" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="50" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="50" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3108,102 +3575,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="52" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="52">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="52" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="2" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="50" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="2" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="50" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="2" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="50" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="2" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="50" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="2" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="50" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="2" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="50" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="2" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="50" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="50" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="50" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="50" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="50" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="50" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="50" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="50" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="50" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="50" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="50" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="50" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="50" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -3247,19 +3714,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -3328,13 +3795,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3470,21 +3937,65 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2"/>
-    <cellStyle name="常规 2 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="3"/>
-    <cellStyle name="常规 4" xfId="4"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="常规 2 2" xfId="44"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="50"/>
+    <cellStyle name="常规 3" xfId="51"/>
+    <cellStyle name="常规 4" xfId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3771,23 +4282,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AZ205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D181" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="P119" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E200" sqref="E200"/>
+      <selection pane="bottomRight" activeCell="W125" sqref="W125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18.25" style="16" customWidth="1"/>
     <col min="3" max="3" width="27.125" style="16" customWidth="1"/>
@@ -3830,7 +4341,7 @@
     <col min="52" max="52" width="23.75" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="48" x14ac:dyDescent="0.15">
+    <row r="1" ht="48" spans="1:52">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3986,7 +4497,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:52">
       <c r="A2" s="4" t="s">
         <v>51</v>
       </c>
@@ -4140,7 +4651,7 @@
       <c r="AY2" s="72"/>
       <c r="AZ2" s="4"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:52">
       <c r="A3" s="5" t="s">
         <v>101</v>
       </c>
@@ -4294,7 +4805,7 @@
       <c r="AY3" s="5"/>
       <c r="AZ3" s="5"/>
     </row>
-    <row r="4" spans="1:52" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="56" customFormat="1" spans="1:52">
       <c r="A4" s="13" t="s">
         <v>108</v>
       </c>
@@ -4367,7 +4878,7 @@
       <c r="AX4" s="95"/>
       <c r="AZ4" s="75"/>
     </row>
-    <row r="5" spans="1:52" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" s="56" customFormat="1" spans="1:52">
       <c r="A5" s="75">
         <v>1001</v>
       </c>
@@ -4450,7 +4961,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:52" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" s="56" customFormat="1" spans="1:52">
       <c r="A6" s="75">
         <v>1002</v>
       </c>
@@ -4535,7 +5046,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:52" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" s="56" customFormat="1" spans="1:52">
       <c r="A7" s="75">
         <v>1003</v>
       </c>
@@ -4622,7 +5133,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:52" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" s="56" customFormat="1" spans="1:52">
       <c r="A8" s="75">
         <v>1004</v>
       </c>
@@ -4703,7 +5214,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:52" s="57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" s="57" customFormat="1" spans="1:52">
       <c r="A9" s="78">
         <v>1005</v>
       </c>
@@ -4718,7 +5229,7 @@
         <v>130</v>
       </c>
       <c r="F9" s="79">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="G9" s="79" t="s">
         <v>118</v>
@@ -4797,7 +5308,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:52" s="57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" s="57" customFormat="1" spans="1:52">
       <c r="A10" s="78">
         <v>1006</v>
       </c>
@@ -4882,11 +5393,14 @@
       <c r="AW10" s="57">
         <v>0</v>
       </c>
+      <c r="AX10" s="57">
+        <v>1</v>
+      </c>
       <c r="AZ10" s="79" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:52" s="57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" s="57" customFormat="1" spans="1:52">
       <c r="A11" s="78">
         <v>1007</v>
       </c>
@@ -4971,11 +5485,14 @@
       <c r="AW11" s="57">
         <v>0</v>
       </c>
+      <c r="AX11" s="57">
+        <v>1</v>
+      </c>
       <c r="AZ11" s="79" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:52" s="57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" s="57" customFormat="1" spans="1:52">
       <c r="A12" s="78">
         <v>1008</v>
       </c>
@@ -5067,7 +5584,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:52" s="57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" s="57" customFormat="1" spans="1:52">
       <c r="A13" s="78">
         <v>1009</v>
       </c>
@@ -5152,7 +5669,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:52" s="57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" s="57" customFormat="1" spans="1:52">
       <c r="A14" s="78">
         <v>1010</v>
       </c>
@@ -5240,7 +5757,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:52" s="57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" s="57" customFormat="1" spans="1:52">
       <c r="A15" s="78">
         <v>1011</v>
       </c>
@@ -5325,7 +5842,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:52" s="57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" s="57" customFormat="1" spans="1:52">
       <c r="A16" s="78">
         <v>1012</v>
       </c>
@@ -5410,7 +5927,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:52" s="57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" s="57" customFormat="1" spans="1:52">
       <c r="A17" s="78">
         <v>1013</v>
       </c>
@@ -5495,7 +6012,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:52" s="57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" s="57" customFormat="1" spans="1:52">
       <c r="A18" s="78">
         <v>1014</v>
       </c>
@@ -5510,7 +6027,7 @@
         <v>137</v>
       </c>
       <c r="F18" s="79">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="G18" s="79" t="s">
         <v>158</v>
@@ -5550,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="V18" s="78">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="W18" s="78"/>
       <c r="X18" s="57">
@@ -5580,7 +6097,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:52" s="58" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" s="58" customFormat="1" spans="1:52">
       <c r="A19" s="81">
         <v>1021</v>
       </c>
@@ -5663,7 +6180,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:52" s="58" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" s="58" customFormat="1" spans="1:52">
       <c r="A20" s="81">
         <v>1022</v>
       </c>
@@ -5746,7 +6263,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:52" s="58" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" s="58" customFormat="1" spans="1:52">
       <c r="A21" s="81">
         <v>1023</v>
       </c>
@@ -5801,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="81">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="W21" s="81"/>
       <c r="X21" s="58">
@@ -5829,7 +6346,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:52" s="58" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" s="58" customFormat="1" spans="1:52">
       <c r="A22" s="81">
         <v>1024</v>
       </c>
@@ -5912,7 +6429,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:52" s="58" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" s="58" customFormat="1" spans="1:52">
       <c r="A23" s="81">
         <v>1025</v>
       </c>
@@ -5997,7 +6514,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="1:52" s="58" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" s="58" customFormat="1" spans="1:52">
       <c r="A24" s="81">
         <v>1026</v>
       </c>
@@ -6080,7 +6597,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:52" s="58" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" s="58" customFormat="1" spans="1:52">
       <c r="A25" s="81">
         <v>1027</v>
       </c>
@@ -6163,7 +6680,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:52" s="58" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" s="58" customFormat="1" spans="1:52">
       <c r="A26" s="81">
         <v>1028</v>
       </c>
@@ -6218,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="V26" s="81">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="W26" s="81"/>
       <c r="X26" s="58">
@@ -6246,7 +6763,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="1:52" s="58" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" s="58" customFormat="1" spans="1:52">
       <c r="A27" s="81">
         <v>1029</v>
       </c>
@@ -6301,7 +6818,7 @@
         <v>0</v>
       </c>
       <c r="V27" s="81">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="W27" s="81"/>
       <c r="X27" s="58">
@@ -6329,7 +6846,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="1:52" s="57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" s="57" customFormat="1" spans="1:52">
       <c r="A28" s="78">
         <v>1031</v>
       </c>
@@ -6413,7 +6930,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="29" spans="1:52" s="57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" s="57" customFormat="1" spans="1:52">
       <c r="A29" s="78">
         <v>1032</v>
       </c>
@@ -6497,7 +7014,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:52" s="57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" s="57" customFormat="1" spans="1:52">
       <c r="A30" s="78">
         <v>1033</v>
       </c>
@@ -6581,7 +7098,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="1:52" s="57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" s="57" customFormat="1" spans="1:52">
       <c r="A31" s="78">
         <v>1034</v>
       </c>
@@ -6665,7 +7182,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="32" spans="1:52" s="57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" s="57" customFormat="1" spans="1:52">
       <c r="A32" s="78">
         <v>1035</v>
       </c>
@@ -6751,7 +7268,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="33" spans="1:52" s="57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" s="57" customFormat="1" spans="1:52">
       <c r="A33" s="78">
         <v>1036</v>
       </c>
@@ -6835,7 +7352,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="34" spans="1:52" s="57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" s="57" customFormat="1" spans="1:52">
       <c r="A34" s="78">
         <v>1037</v>
       </c>
@@ -6919,7 +7436,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="35" spans="1:52" s="57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" s="57" customFormat="1" spans="1:52">
       <c r="A35" s="78">
         <v>1038</v>
       </c>
@@ -7003,7 +7520,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="36" spans="1:52" s="57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" s="57" customFormat="1" spans="1:52">
       <c r="A36" s="78">
         <v>1039</v>
       </c>
@@ -7058,7 +7575,7 @@
         <v>0</v>
       </c>
       <c r="V36" s="78">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="W36" s="78"/>
       <c r="X36" s="57">
@@ -7087,7 +7604,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:52" s="59" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" s="59" customFormat="1" spans="1:52">
       <c r="A37" s="85">
         <v>1040</v>
       </c>
@@ -7174,7 +7691,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A38" s="88">
         <v>2001</v>
       </c>
@@ -7294,7 +7811,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="39" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A39" s="88">
         <v>2002</v>
       </c>
@@ -7414,7 +7931,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="40" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A40" s="88">
         <v>2003</v>
       </c>
@@ -7536,7 +8053,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="41" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A41" s="88">
         <v>2004</v>
       </c>
@@ -7641,7 +8158,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="42" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A42" s="88">
         <v>2005</v>
       </c>
@@ -7761,7 +8278,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A43" s="88">
         <v>2006</v>
       </c>
@@ -7883,7 +8400,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="44" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A44" s="88">
         <v>2007</v>
       </c>
@@ -8005,7 +8522,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="45" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A45" s="88">
         <v>2008</v>
       </c>
@@ -8110,7 +8627,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="46" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A46" s="88">
         <v>2009</v>
       </c>
@@ -8232,7 +8749,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="47" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A47" s="88">
         <v>2010</v>
       </c>
@@ -8352,7 +8869,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="48" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A48" s="88">
         <v>2011</v>
       </c>
@@ -8457,7 +8974,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="49" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A49" s="88">
         <v>2012</v>
       </c>
@@ -8562,7 +9079,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="50" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A50" s="88">
         <v>2013</v>
       </c>
@@ -8684,7 +9201,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="51" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A51" s="88">
         <v>2014</v>
       </c>
@@ -8804,7 +9321,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="52" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A52" s="88">
         <v>2015</v>
       </c>
@@ -8924,7 +9441,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="53" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A53" s="88">
         <v>2016</v>
       </c>
@@ -9031,7 +9548,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="54" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A54" s="88">
         <v>2017</v>
       </c>
@@ -9151,7 +9668,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="55" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A55" s="88">
         <v>2018</v>
       </c>
@@ -9273,7 +9790,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="56" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A56" s="88">
         <v>2019</v>
       </c>
@@ -9393,7 +9910,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="57" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A57" s="88">
         <v>2020</v>
       </c>
@@ -9513,7 +10030,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="58" spans="1:52" s="61" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" s="61" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A58" s="91">
         <v>2021</v>
       </c>
@@ -9633,7 +10150,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="59" spans="1:52" s="61" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" s="61" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A59" s="91">
         <v>2022</v>
       </c>
@@ -9751,7 +10268,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="60" spans="1:52" s="61" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" s="61" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A60" s="91">
         <v>2023</v>
       </c>
@@ -9870,7 +10387,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="61" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A61" s="88">
         <v>2024</v>
       </c>
@@ -9993,7 +10510,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="62" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A62" s="88">
         <v>2025</v>
       </c>
@@ -10098,7 +10615,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="63" spans="1:52" s="61" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" s="61" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A63" s="91">
         <v>2026</v>
       </c>
@@ -10201,7 +10718,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="64" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A64" s="88">
         <v>2027</v>
       </c>
@@ -10324,7 +10841,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="65" spans="1:52" s="61" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" s="61" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A65" s="91">
         <v>2028</v>
       </c>
@@ -10429,7 +10946,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="66" spans="1:52" s="61" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" s="61" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A66" s="91">
         <v>2029</v>
       </c>
@@ -10526,7 +11043,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="67" spans="1:52" s="61" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" s="61" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A67" s="91">
         <v>2030</v>
       </c>
@@ -10639,7 +11156,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="68" spans="1:52" s="61" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" s="61" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A68" s="91">
         <v>2031</v>
       </c>
@@ -10752,7 +11269,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="69" spans="1:52" s="61" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" s="61" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A69" s="91">
         <v>2032</v>
       </c>
@@ -10849,7 +11366,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="70" spans="1:52" s="61" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" s="61" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A70" s="91">
         <v>2033</v>
       </c>
@@ -10946,7 +11463,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="71" spans="1:52" s="61" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" s="61" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A71" s="91">
         <v>2034</v>
       </c>
@@ -11059,7 +11576,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="72" spans="1:52" s="61" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" s="61" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A72" s="91">
         <v>2035</v>
       </c>
@@ -11172,7 +11689,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="73" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A73" s="88">
         <v>2036</v>
       </c>
@@ -11271,7 +11788,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="74" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A74" s="88">
         <v>2037</v>
       </c>
@@ -11370,7 +11887,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="75" spans="1:52" s="61" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" s="61" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A75" s="91">
         <v>2038</v>
       </c>
@@ -11483,7 +12000,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="76" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A76" s="88">
         <v>2039</v>
       </c>
@@ -11598,7 +12115,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="77" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A77" s="111">
         <v>2101</v>
       </c>
@@ -11711,7 +12228,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="78" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A78" s="111">
         <v>2102</v>
       </c>
@@ -11824,7 +12341,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="79" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A79" s="111">
         <v>2103</v>
       </c>
@@ -11937,7 +12454,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="80" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A80" s="111">
         <v>2104</v>
       </c>
@@ -12050,7 +12567,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="81" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A81" s="111">
         <v>2105</v>
       </c>
@@ -12163,7 +12680,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="82" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A82" s="111">
         <v>2106</v>
       </c>
@@ -12276,7 +12793,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="83" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A83" s="111">
         <v>2107</v>
       </c>
@@ -12389,7 +12906,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="84" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A84" s="111">
         <v>2108</v>
       </c>
@@ -12502,7 +13019,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="85" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A85" s="111">
         <v>2109</v>
       </c>
@@ -12615,7 +13132,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="86" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A86" s="111">
         <v>2110</v>
       </c>
@@ -12728,7 +13245,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="87" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A87" s="111">
         <v>2111</v>
       </c>
@@ -12825,7 +13342,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="88" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A88" s="111">
         <v>2112</v>
       </c>
@@ -12938,7 +13455,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="89" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A89" s="111">
         <v>2113</v>
       </c>
@@ -13051,7 +13568,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="90" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A90" s="111">
         <v>2114</v>
       </c>
@@ -13148,7 +13665,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="91" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A91" s="111">
         <v>2115</v>
       </c>
@@ -13261,7 +13778,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="92" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A92" s="111">
         <v>2116</v>
       </c>
@@ -13374,7 +13891,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="93" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A93" s="111">
         <v>2117</v>
       </c>
@@ -13471,7 +13988,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="94" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A94" s="111">
         <v>2118</v>
       </c>
@@ -13584,7 +14101,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="95" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A95" s="111">
         <v>2119</v>
       </c>
@@ -13697,7 +14214,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="96" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A96" s="111">
         <v>2120</v>
       </c>
@@ -13810,7 +14327,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="97" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A97" s="111">
         <v>2121</v>
       </c>
@@ -13907,7 +14424,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="98" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A98" s="111">
         <v>2122</v>
       </c>
@@ -14020,7 +14537,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="99" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A99" s="111">
         <v>2123</v>
       </c>
@@ -14133,7 +14650,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="100" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A100" s="111">
         <v>2124</v>
       </c>
@@ -14246,7 +14763,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="101" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A101" s="111">
         <v>2125</v>
       </c>
@@ -14343,7 +14860,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="102" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A102" s="111">
         <v>2126</v>
       </c>
@@ -14456,7 +14973,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="103" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A103" s="111">
         <v>2127</v>
       </c>
@@ -14569,7 +15086,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="104" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A104" s="111">
         <v>2128</v>
       </c>
@@ -14682,7 +15199,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="105" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A105" s="111">
         <v>2129</v>
       </c>
@@ -14779,7 +15296,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="106" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A106" s="111">
         <v>2130</v>
       </c>
@@ -14876,7 +15393,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="107" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A107" s="111">
         <v>2131</v>
       </c>
@@ -14989,7 +15506,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="108" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A108" s="111">
         <v>2132</v>
       </c>
@@ -15102,7 +15619,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="109" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A109" s="111">
         <v>2133</v>
       </c>
@@ -15215,7 +15732,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="110" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A110" s="111">
         <v>2134</v>
       </c>
@@ -15328,7 +15845,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="111" spans="1:52" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" s="62" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A111" s="111">
         <v>2135</v>
       </c>
@@ -15425,7 +15942,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="112" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A112" s="88">
         <v>2201</v>
       </c>
@@ -15457,7 +15974,7 @@
       </c>
       <c r="L112" s="89">
         <f t="shared" si="25"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M112" s="89">
         <v>3</v>
@@ -15486,7 +16003,7 @@
       </c>
       <c r="W112" s="88"/>
       <c r="X112" s="60">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z112" s="60">
         <v>10</v>
@@ -15538,7 +16055,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="113" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A113" s="88">
         <v>2202</v>
       </c>
@@ -15570,7 +16087,7 @@
       </c>
       <c r="L113" s="89">
         <f t="shared" si="25"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M113" s="89">
         <v>3</v>
@@ -15599,7 +16116,7 @@
       </c>
       <c r="W113" s="88"/>
       <c r="X113" s="60">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z113" s="60">
         <v>10</v>
@@ -15651,7 +16168,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="114" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A114" s="88">
         <v>2203</v>
       </c>
@@ -15683,7 +16200,7 @@
       </c>
       <c r="L114" s="89">
         <f t="shared" si="25"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M114" s="89">
         <v>3</v>
@@ -15712,7 +16229,7 @@
       </c>
       <c r="W114" s="88"/>
       <c r="X114" s="60">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Z114" s="60">
         <v>10</v>
@@ -15764,7 +16281,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="115" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A115" s="88">
         <v>2204</v>
       </c>
@@ -15796,7 +16313,7 @@
       </c>
       <c r="L115" s="89">
         <f t="shared" si="25"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M115" s="89">
         <v>3</v>
@@ -15825,7 +16342,7 @@
       </c>
       <c r="W115" s="88"/>
       <c r="X115" s="60">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Z115" s="60">
         <v>10</v>
@@ -15877,7 +16394,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="116" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A116" s="88">
         <v>2205</v>
       </c>
@@ -15909,7 +16426,7 @@
       </c>
       <c r="L116" s="89">
         <f t="shared" si="25"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M116" s="89">
         <v>3</v>
@@ -15938,7 +16455,7 @@
       </c>
       <c r="W116" s="88"/>
       <c r="X116" s="60">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Z116" s="60">
         <v>10</v>
@@ -15990,7 +16507,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="117" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A117" s="88">
         <v>2206</v>
       </c>
@@ -16087,7 +16604,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="118" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A118" s="88">
         <v>2207</v>
       </c>
@@ -16119,7 +16636,7 @@
       </c>
       <c r="L118" s="89">
         <f t="shared" si="25"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M118" s="89">
         <v>3</v>
@@ -16148,7 +16665,7 @@
       </c>
       <c r="W118" s="88"/>
       <c r="X118" s="60">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Z118" s="60">
         <v>10</v>
@@ -16200,7 +16717,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="119" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A119" s="88">
         <v>2208</v>
       </c>
@@ -16232,7 +16749,7 @@
       </c>
       <c r="L119" s="89">
         <f t="shared" si="25"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M119" s="89">
         <v>3</v>
@@ -16261,7 +16778,7 @@
       </c>
       <c r="W119" s="88"/>
       <c r="X119" s="60">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Z119" s="60">
         <v>10</v>
@@ -16313,7 +16830,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="120" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A120" s="88">
         <v>2209</v>
       </c>
@@ -16345,7 +16862,7 @@
       </c>
       <c r="L120" s="89">
         <f t="shared" si="25"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M120" s="89">
         <v>3</v>
@@ -16374,7 +16891,7 @@
       </c>
       <c r="W120" s="88"/>
       <c r="X120" s="60">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Z120" s="60">
         <v>10</v>
@@ -16426,7 +16943,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="121" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A121" s="88">
         <v>2210</v>
       </c>
@@ -16458,7 +16975,7 @@
       </c>
       <c r="L121" s="89">
         <f t="shared" si="25"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M121" s="89">
         <v>3</v>
@@ -16487,7 +17004,7 @@
       </c>
       <c r="W121" s="88"/>
       <c r="X121" s="60">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AD121" s="60">
         <v>400</v>
@@ -16523,7 +17040,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="122" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A122" s="88">
         <v>2211</v>
       </c>
@@ -16555,7 +17072,7 @@
       </c>
       <c r="L122" s="89">
         <f t="shared" si="25"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M122" s="89">
         <v>3</v>
@@ -16584,7 +17101,7 @@
       </c>
       <c r="W122" s="88"/>
       <c r="X122" s="60">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Z122" s="60">
         <v>10</v>
@@ -16636,7 +17153,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="123" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A123" s="88">
         <v>2212</v>
       </c>
@@ -16668,7 +17185,7 @@
       </c>
       <c r="L123" s="89">
         <f t="shared" si="25"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M123" s="89">
         <v>3</v>
@@ -16697,7 +17214,7 @@
       </c>
       <c r="W123" s="88"/>
       <c r="X123" s="60">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Z123" s="60">
         <v>10</v>
@@ -16749,7 +17266,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="124" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A124" s="88">
         <v>2213</v>
       </c>
@@ -16781,7 +17298,7 @@
       </c>
       <c r="L124" s="89">
         <f t="shared" si="25"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M124" s="89">
         <v>3</v>
@@ -16810,7 +17327,7 @@
       </c>
       <c r="W124" s="88"/>
       <c r="X124" s="60">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AD124" s="60">
         <v>400</v>
@@ -16846,7 +17363,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="125" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A125" s="88">
         <v>2214</v>
       </c>
@@ -16878,7 +17395,7 @@
       </c>
       <c r="L125" s="89">
         <f t="shared" si="25"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M125" s="89">
         <v>3</v>
@@ -16907,7 +17424,7 @@
       </c>
       <c r="W125" s="88"/>
       <c r="X125" s="60">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z125" s="60">
         <v>10</v>
@@ -16959,7 +17476,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="126" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A126" s="88">
         <v>2215</v>
       </c>
@@ -17056,7 +17573,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="127" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A127" s="88">
         <v>2216</v>
       </c>
@@ -17088,7 +17605,7 @@
       </c>
       <c r="L127" s="89">
         <f t="shared" si="25"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M127" s="89">
         <v>3</v>
@@ -17117,7 +17634,7 @@
       </c>
       <c r="W127" s="88"/>
       <c r="X127" s="60">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AD127" s="60">
         <v>400</v>
@@ -17153,7 +17670,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="128" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A128" s="88">
         <v>2217</v>
       </c>
@@ -17185,7 +17702,7 @@
       </c>
       <c r="L128" s="89">
         <f t="shared" si="25"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M128" s="89">
         <v>3</v>
@@ -17214,7 +17731,7 @@
       </c>
       <c r="W128" s="88"/>
       <c r="X128" s="60">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AD128" s="60">
         <v>400</v>
@@ -17250,7 +17767,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="129" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A129" s="88">
         <v>2218</v>
       </c>
@@ -17363,7 +17880,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="130" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A130" s="88">
         <v>2219</v>
       </c>
@@ -17395,7 +17912,7 @@
       </c>
       <c r="L130" s="89">
         <f t="shared" si="25"/>
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="M130" s="89">
         <v>3</v>
@@ -17424,7 +17941,7 @@
       </c>
       <c r="W130" s="88"/>
       <c r="X130" s="60">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AD130" s="60">
         <v>500</v>
@@ -17460,7 +17977,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="131" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A131" s="88">
         <v>2220</v>
       </c>
@@ -17492,7 +18009,7 @@
       </c>
       <c r="L131" s="89">
         <f t="shared" si="25"/>
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M131" s="89">
         <v>3</v>
@@ -17521,7 +18038,7 @@
       </c>
       <c r="W131" s="88"/>
       <c r="X131" s="60">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="Z131" s="60">
         <v>10</v>
@@ -17573,7 +18090,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="132" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A132" s="88">
         <v>2221</v>
       </c>
@@ -17605,7 +18122,7 @@
       </c>
       <c r="L132" s="89">
         <f t="shared" si="25"/>
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M132" s="89">
         <v>3</v>
@@ -17634,7 +18151,7 @@
       </c>
       <c r="W132" s="88"/>
       <c r="X132" s="60">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="Z132" s="60">
         <v>10</v>
@@ -17686,7 +18203,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="133" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A133" s="88">
         <v>2222</v>
       </c>
@@ -17718,7 +18235,7 @@
       </c>
       <c r="L133" s="89">
         <f t="shared" si="25"/>
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M133" s="89">
         <v>3</v>
@@ -17747,7 +18264,7 @@
       </c>
       <c r="W133" s="88"/>
       <c r="X133" s="60">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AD133" s="60">
         <v>500</v>
@@ -17783,7 +18300,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="134" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A134" s="88">
         <v>2223</v>
       </c>
@@ -17815,7 +18332,7 @@
       </c>
       <c r="L134" s="89">
         <f t="shared" si="25"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M134" s="89">
         <v>3</v>
@@ -17844,7 +18361,7 @@
       </c>
       <c r="W134" s="88"/>
       <c r="X134" s="60">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AD134" s="60">
         <v>500</v>
@@ -17880,7 +18397,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="135" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A135" s="88">
         <v>2224</v>
       </c>
@@ -17912,7 +18429,7 @@
       </c>
       <c r="L135" s="89">
         <f t="shared" si="25"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M135" s="89">
         <v>3</v>
@@ -17941,7 +18458,7 @@
       </c>
       <c r="W135" s="88"/>
       <c r="X135" s="60">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Z135" s="60">
         <v>10</v>
@@ -17993,7 +18510,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="136" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A136" s="88">
         <v>2225</v>
       </c>
@@ -18025,7 +18542,7 @@
       </c>
       <c r="L136" s="89">
         <f t="shared" si="25"/>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M136" s="89">
         <v>3</v>
@@ -18054,7 +18571,7 @@
       </c>
       <c r="W136" s="88"/>
       <c r="X136" s="60">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AD136" s="60">
         <v>500</v>
@@ -18090,7 +18607,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="137" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A137" s="88">
         <v>2226</v>
       </c>
@@ -18122,7 +18639,7 @@
       </c>
       <c r="L137" s="89">
         <f t="shared" si="25"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M137" s="89">
         <v>3</v>
@@ -18151,7 +18668,7 @@
       </c>
       <c r="W137" s="88"/>
       <c r="X137" s="60">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Z137" s="60">
         <v>10</v>
@@ -18203,7 +18720,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="138" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A138" s="88">
         <v>2227</v>
       </c>
@@ -18235,7 +18752,7 @@
       </c>
       <c r="L138" s="89">
         <f t="shared" ref="L138:L145" si="26">X138</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M138" s="89">
         <v>3</v>
@@ -18264,7 +18781,7 @@
       </c>
       <c r="W138" s="88"/>
       <c r="X138" s="60">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Z138" s="60">
         <v>10</v>
@@ -18316,7 +18833,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="139" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A139" s="88">
         <v>2228</v>
       </c>
@@ -18348,7 +18865,7 @@
       </c>
       <c r="L139" s="89">
         <f t="shared" si="26"/>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M139" s="89">
         <v>3</v>
@@ -18377,7 +18894,7 @@
       </c>
       <c r="W139" s="88"/>
       <c r="X139" s="60">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AD139" s="60">
         <v>500</v>
@@ -18413,7 +18930,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="140" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A140" s="88">
         <v>2229</v>
       </c>
@@ -18445,7 +18962,7 @@
       </c>
       <c r="L140" s="89">
         <f t="shared" si="26"/>
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M140" s="89">
         <v>3</v>
@@ -18474,7 +18991,7 @@
       </c>
       <c r="W140" s="88"/>
       <c r="X140" s="60">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AD140" s="60">
         <v>500</v>
@@ -18510,7 +19027,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="141" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A141" s="88">
         <v>2230</v>
       </c>
@@ -18542,7 +19059,7 @@
       </c>
       <c r="L141" s="89">
         <f t="shared" si="26"/>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M141" s="89">
         <v>3</v>
@@ -18571,7 +19088,7 @@
       </c>
       <c r="W141" s="88"/>
       <c r="X141" s="60">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="Z141" s="60">
         <v>10</v>
@@ -18623,7 +19140,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="142" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A142" s="88">
         <v>2231</v>
       </c>
@@ -18655,7 +19172,7 @@
       </c>
       <c r="L142" s="89">
         <f t="shared" si="26"/>
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="M142" s="89">
         <v>3</v>
@@ -18684,7 +19201,7 @@
       </c>
       <c r="W142" s="88"/>
       <c r="X142" s="60">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="AD142" s="60">
         <v>500</v>
@@ -18720,7 +19237,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="143" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A143" s="88">
         <v>2232</v>
       </c>
@@ -18752,7 +19269,7 @@
       </c>
       <c r="L143" s="89">
         <f t="shared" si="26"/>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M143" s="89">
         <v>3</v>
@@ -18781,7 +19298,7 @@
       </c>
       <c r="W143" s="88"/>
       <c r="X143" s="60">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Z143" s="60">
         <v>10</v>
@@ -18833,7 +19350,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="144" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A144" s="88">
         <v>2233</v>
       </c>
@@ -18865,7 +19382,7 @@
       </c>
       <c r="L144" s="89">
         <f t="shared" si="26"/>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M144" s="89">
         <v>3</v>
@@ -18894,7 +19411,7 @@
       </c>
       <c r="W144" s="88"/>
       <c r="X144" s="60">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="Z144" s="60">
         <v>10</v>
@@ -18946,7 +19463,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="145" spans="1:52" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" s="60" customFormat="1" ht="27" customHeight="1" spans="1:52">
       <c r="A145" s="88">
         <v>2234</v>
       </c>
@@ -18978,7 +19495,7 @@
       </c>
       <c r="L145" s="89">
         <f t="shared" si="26"/>
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="M145" s="89">
         <v>3</v>
@@ -19007,7 +19524,7 @@
       </c>
       <c r="W145" s="88"/>
       <c r="X145" s="60">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AD145" s="60">
         <v>500</v>
@@ -19042,7 +19559,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="146" spans="1:52" s="63" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="146" s="63" customFormat="1" spans="1:52">
       <c r="A146" s="118">
         <v>3101</v>
       </c>
@@ -19161,7 +19678,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="147" spans="1:52" s="63" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="147" s="63" customFormat="1" spans="1:52">
       <c r="A147" s="118">
         <v>3102</v>
       </c>
@@ -19280,7 +19797,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="148" spans="1:52" s="63" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="148" s="63" customFormat="1" spans="1:52">
       <c r="A148" s="118">
         <v>3103</v>
       </c>
@@ -19398,7 +19915,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="149" spans="1:52" s="63" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="149" s="63" customFormat="1" spans="1:52">
       <c r="A149" s="118">
         <v>3104</v>
       </c>
@@ -19516,7 +20033,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="150" spans="1:52" s="63" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="150" s="63" customFormat="1" spans="1:52">
       <c r="A150" s="118">
         <v>3105</v>
       </c>
@@ -19635,7 +20152,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="151" spans="1:52" s="63" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="151" s="63" customFormat="1" spans="1:52">
       <c r="A151" s="118">
         <v>3106</v>
       </c>
@@ -19754,7 +20271,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="152" spans="1:52" s="63" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="152" s="63" customFormat="1" spans="1:52">
       <c r="A152" s="118">
         <v>3107</v>
       </c>
@@ -19873,7 +20390,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="153" spans="1:52" s="64" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="153" s="64" customFormat="1" spans="1:52">
       <c r="A153" s="122">
         <v>3201</v>
       </c>
@@ -19991,7 +20508,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="154" spans="1:52" s="64" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="154" s="64" customFormat="1" spans="1:52">
       <c r="A154" s="122">
         <v>3202</v>
       </c>
@@ -20109,7 +20626,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="155" spans="1:52" s="64" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="155" s="64" customFormat="1" spans="1:52">
       <c r="A155" s="122">
         <v>3203</v>
       </c>
@@ -20227,7 +20744,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="156" spans="1:52" s="64" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="156" s="64" customFormat="1" spans="1:52">
       <c r="A156" s="122">
         <v>3204</v>
       </c>
@@ -20344,7 +20861,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="157" spans="1:52" s="64" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="157" s="64" customFormat="1" spans="1:52">
       <c r="A157" s="122">
         <v>3205</v>
       </c>
@@ -20462,7 +20979,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="158" spans="1:52" s="64" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="158" s="64" customFormat="1" spans="1:52">
       <c r="A158" s="122">
         <v>3206</v>
       </c>
@@ -20580,7 +21097,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="159" spans="1:52" s="64" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="159" s="64" customFormat="1" spans="1:52">
       <c r="A159" s="122">
         <v>3207</v>
       </c>
@@ -20698,7 +21215,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="160" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="160" s="65" customFormat="1" spans="1:52">
       <c r="A160" s="125">
         <v>4001</v>
       </c>
@@ -20780,7 +21297,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="161" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="161" s="65" customFormat="1" spans="1:52">
       <c r="A161" s="125">
         <v>4002</v>
       </c>
@@ -20862,7 +21379,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="162" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="162" s="65" customFormat="1" spans="1:52">
       <c r="A162" s="125">
         <v>4003</v>
       </c>
@@ -20944,7 +21461,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="163" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="163" s="65" customFormat="1" spans="1:52">
       <c r="A163" s="125">
         <v>4004</v>
       </c>
@@ -21026,7 +21543,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="164" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="164" s="65" customFormat="1" spans="1:52">
       <c r="A164" s="125">
         <v>4005</v>
       </c>
@@ -21108,7 +21625,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="165" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="165" s="65" customFormat="1" spans="1:52">
       <c r="A165" s="125">
         <v>4006</v>
       </c>
@@ -21190,7 +21707,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="166" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="166" s="65" customFormat="1" spans="1:52">
       <c r="A166" s="125">
         <v>4007</v>
       </c>
@@ -21272,7 +21789,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="167" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="167" s="65" customFormat="1" spans="1:52">
       <c r="A167" s="125">
         <v>4008</v>
       </c>
@@ -21354,7 +21871,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="168" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="168" s="65" customFormat="1" spans="1:52">
       <c r="A168" s="125">
         <v>4009</v>
       </c>
@@ -21436,7 +21953,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="169" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="169" s="65" customFormat="1" spans="1:52">
       <c r="A169" s="125">
         <v>4010</v>
       </c>
@@ -21518,7 +22035,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="170" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="170" s="65" customFormat="1" spans="1:52">
       <c r="A170" s="125">
         <v>4011</v>
       </c>
@@ -21600,7 +22117,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="171" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="171" s="65" customFormat="1" spans="1:52">
       <c r="A171" s="125">
         <v>4012</v>
       </c>
@@ -21682,7 +22199,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="172" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="172" s="65" customFormat="1" spans="1:52">
       <c r="A172" s="125">
         <v>4013</v>
       </c>
@@ -21766,7 +22283,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="173" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="173" s="65" customFormat="1" spans="1:52">
       <c r="A173" s="125">
         <v>4014</v>
       </c>
@@ -21850,7 +22367,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="174" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="174" s="65" customFormat="1" spans="1:52">
       <c r="A174" s="125">
         <v>4015</v>
       </c>
@@ -21934,7 +22451,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="175" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="175" s="65" customFormat="1" spans="1:52">
       <c r="A175" s="125">
         <v>4016</v>
       </c>
@@ -22016,7 +22533,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="176" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="176" s="65" customFormat="1" spans="1:52">
       <c r="A176" s="125">
         <v>4017</v>
       </c>
@@ -22098,7 +22615,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="177" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="177" s="65" customFormat="1" spans="1:52">
       <c r="A177" s="125">
         <v>4018</v>
       </c>
@@ -22180,7 +22697,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="178" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="178" s="65" customFormat="1" spans="1:52">
       <c r="A178" s="125">
         <v>4019</v>
       </c>
@@ -22262,7 +22779,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="179" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="179" s="65" customFormat="1" spans="1:52">
       <c r="A179" s="125">
         <v>4020</v>
       </c>
@@ -22346,7 +22863,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="180" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="180" s="65" customFormat="1" spans="1:52">
       <c r="A180" s="125">
         <v>4021</v>
       </c>
@@ -22428,7 +22945,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="181" spans="1:52" s="65" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="181" s="65" customFormat="1" spans="1:52">
       <c r="A181" s="125">
         <v>4022</v>
       </c>
@@ -22510,7 +23027,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="182" spans="1:52" s="66" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="182" s="66" customFormat="1" spans="1:52">
       <c r="A182" s="128">
         <v>4024</v>
       </c>
@@ -22592,7 +23109,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="183" spans="1:52" s="66" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="183" s="66" customFormat="1" spans="1:52">
       <c r="A183" s="128">
         <v>4025</v>
       </c>
@@ -22674,7 +23191,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="184" spans="1:52" s="66" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="184" s="66" customFormat="1" spans="1:52">
       <c r="A184" s="128">
         <v>4026</v>
       </c>
@@ -22756,7 +23273,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="185" spans="1:52" s="66" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="185" s="66" customFormat="1" spans="1:52">
       <c r="A185" s="128">
         <v>4027</v>
       </c>
@@ -22838,7 +23355,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="186" spans="1:52" s="66" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="186" s="66" customFormat="1" spans="1:52">
       <c r="A186" s="128">
         <v>4028</v>
       </c>
@@ -22920,7 +23437,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="187" spans="1:52" s="66" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="187" s="66" customFormat="1" spans="1:52">
       <c r="A187" s="128">
         <v>4029</v>
       </c>
@@ -23002,7 +23519,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="188" spans="1:52" s="66" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="188" s="66" customFormat="1" spans="1:52">
       <c r="A188" s="128">
         <v>4030</v>
       </c>
@@ -23084,7 +23601,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="189" spans="1:52" s="66" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="189" s="66" customFormat="1" spans="1:52">
       <c r="A189" s="128">
         <v>4031</v>
       </c>
@@ -23166,7 +23683,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="190" spans="1:52" s="66" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="190" s="66" customFormat="1" spans="1:52">
       <c r="A190" s="128">
         <v>4032</v>
       </c>
@@ -23248,7 +23765,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="191" spans="1:52" s="66" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="191" s="66" customFormat="1" spans="1:52">
       <c r="A191" s="128">
         <v>4033</v>
       </c>
@@ -23330,7 +23847,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="192" spans="1:52" s="66" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="192" s="66" customFormat="1" spans="1:52">
       <c r="A192" s="128">
         <v>4034</v>
       </c>
@@ -23412,7 +23929,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="193" spans="1:52" s="66" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="193" s="66" customFormat="1" spans="1:52">
       <c r="A193" s="128">
         <v>4035</v>
       </c>
@@ -23420,7 +23937,7 @@
         <v>4035</v>
       </c>
       <c r="C193" s="128" t="s">
-        <v>564</v>
+        <v>433</v>
       </c>
       <c r="D193" s="129"/>
       <c r="E193" s="128" t="s">
@@ -23494,7 +24011,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="194" spans="1:52" s="66" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="194" s="66" customFormat="1" spans="1:52">
       <c r="A194" s="128">
         <v>4071</v>
       </c>
@@ -23502,7 +24019,7 @@
         <v>4071</v>
       </c>
       <c r="C194" s="128" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D194" s="129"/>
       <c r="E194" s="128" t="s">
@@ -23577,10 +24094,10 @@
       </c>
       <c r="AY194" s="138"/>
       <c r="AZ194" s="128" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="195" spans="1:52" s="66" customFormat="1" x14ac:dyDescent="0.15">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="195" s="66" customFormat="1" spans="1:52">
       <c r="A195" s="128">
         <v>4072</v>
       </c>
@@ -23588,7 +24105,7 @@
         <v>4072</v>
       </c>
       <c r="C195" s="128" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D195" s="129"/>
       <c r="E195" s="128" t="s">
@@ -23663,10 +24180,10 @@
       </c>
       <c r="AY195" s="138"/>
       <c r="AZ195" s="128" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="196" spans="1:52" s="66" customFormat="1" x14ac:dyDescent="0.15">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="196" s="66" customFormat="1" spans="1:52">
       <c r="A196" s="128">
         <v>4073</v>
       </c>
@@ -23674,7 +24191,7 @@
         <v>4073</v>
       </c>
       <c r="C196" s="128" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D196" s="129"/>
       <c r="E196" s="128" t="s">
@@ -23747,10 +24264,10 @@
       </c>
       <c r="AY196" s="138"/>
       <c r="AZ196" s="128" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="197" spans="1:52" s="66" customFormat="1" x14ac:dyDescent="0.15">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="197" s="66" customFormat="1" spans="1:52">
       <c r="A197" s="128">
         <v>4074</v>
       </c>
@@ -23758,7 +24275,7 @@
         <v>4074</v>
       </c>
       <c r="C197" s="128" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D197" s="129"/>
       <c r="E197" s="128" t="s">
@@ -23833,10 +24350,10 @@
       </c>
       <c r="AY197" s="138"/>
       <c r="AZ197" s="128" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="198" spans="1:52" s="66" customFormat="1" x14ac:dyDescent="0.15">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="198" s="66" customFormat="1" spans="1:52">
       <c r="A198" s="128">
         <v>4075</v>
       </c>
@@ -23844,7 +24361,7 @@
         <v>4075</v>
       </c>
       <c r="C198" s="128" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D198" s="129"/>
       <c r="E198" s="128" t="s">
@@ -23919,10 +24436,10 @@
       </c>
       <c r="AY198" s="138"/>
       <c r="AZ198" s="128" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="199" spans="1:52" x14ac:dyDescent="0.15">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="199" spans="1:52">
       <c r="A199" s="16">
         <v>1</v>
       </c>
@@ -23930,7 +24447,7 @@
         <v>101</v>
       </c>
       <c r="C199" s="139" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D199" s="140"/>
       <c r="E199" s="79" t="s">
@@ -23947,7 +24464,7 @@
         <v>119</v>
       </c>
       <c r="K199" s="141" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L199" s="141">
         <v>1</v>
@@ -23986,10 +24503,10 @@
       <c r="AX199" s="57"/>
       <c r="AY199" s="57"/>
       <c r="AZ199" s="139" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="200" spans="1:52" x14ac:dyDescent="0.15">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="200" spans="1:52">
       <c r="A200" s="16">
         <v>2</v>
       </c>
@@ -23997,7 +24514,7 @@
         <v>102</v>
       </c>
       <c r="C200" s="139" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D200" s="140"/>
       <c r="E200" s="79" t="s">
@@ -24014,7 +24531,7 @@
         <v>119</v>
       </c>
       <c r="K200" s="141" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L200" s="141">
         <v>1</v>
@@ -24053,10 +24570,10 @@
       <c r="AX200" s="57"/>
       <c r="AY200" s="57"/>
       <c r="AZ200" s="139" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="201" spans="1:52" x14ac:dyDescent="0.15">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="201" spans="1:52">
       <c r="A201" s="16">
         <v>3</v>
       </c>
@@ -24064,7 +24581,7 @@
         <v>103</v>
       </c>
       <c r="C201" s="139" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D201" s="140"/>
       <c r="E201" s="79" t="s">
@@ -24081,7 +24598,7 @@
         <v>119</v>
       </c>
       <c r="K201" s="141" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L201" s="141">
         <v>1</v>
@@ -24120,10 +24637,10 @@
       <c r="AX201" s="57"/>
       <c r="AY201" s="57"/>
       <c r="AZ201" s="139" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="202" spans="1:52" x14ac:dyDescent="0.15">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="202" spans="1:52">
       <c r="A202" s="16">
         <v>4</v>
       </c>
@@ -24131,7 +24648,7 @@
         <v>104</v>
       </c>
       <c r="C202" s="139" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D202" s="140"/>
       <c r="E202" s="79" t="s">
@@ -24148,7 +24665,7 @@
         <v>119</v>
       </c>
       <c r="K202" s="141" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L202" s="141">
         <v>1</v>
@@ -24187,10 +24704,10 @@
       <c r="AX202" s="57"/>
       <c r="AY202" s="57"/>
       <c r="AZ202" s="139" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="203" spans="1:52" x14ac:dyDescent="0.15">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="203" spans="1:52">
       <c r="A203" s="16">
         <v>5</v>
       </c>
@@ -24198,7 +24715,7 @@
         <v>105</v>
       </c>
       <c r="C203" s="139" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D203" s="140"/>
       <c r="E203" s="79" t="s">
@@ -24215,7 +24732,7 @@
         <v>119</v>
       </c>
       <c r="K203" s="141" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L203" s="141">
         <v>1</v>
@@ -24254,10 +24771,10 @@
       <c r="AX203" s="57"/>
       <c r="AY203" s="57"/>
       <c r="AZ203" s="139" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="204" spans="1:52" x14ac:dyDescent="0.15">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="204" spans="1:52">
       <c r="A204" s="16">
         <v>6</v>
       </c>
@@ -24265,7 +24782,7 @@
         <v>106</v>
       </c>
       <c r="C204" s="139" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D204" s="140"/>
       <c r="E204" s="79" t="s">
@@ -24282,7 +24799,7 @@
         <v>119</v>
       </c>
       <c r="K204" s="141" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L204" s="141">
         <v>1</v>
@@ -24321,10 +24838,10 @@
       <c r="AX204" s="57"/>
       <c r="AY204" s="57"/>
       <c r="AZ204" s="139" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="205" spans="1:52" x14ac:dyDescent="0.15">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="205" spans="1:52">
       <c r="A205" s="16">
         <v>7</v>
       </c>
@@ -24332,7 +24849,7 @@
         <v>107</v>
       </c>
       <c r="C205" s="139" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D205" s="140"/>
       <c r="E205" s="79" t="s">
@@ -24349,7 +24866,7 @@
         <v>119</v>
       </c>
       <c r="K205" s="141" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L205" s="141">
         <v>1</v>
@@ -24388,28 +24905,29 @@
       <c r="AX205" s="57"/>
       <c r="AY205" s="57"/>
       <c r="AZ205" s="139" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="8.875" style="1" customWidth="1"/>
@@ -24420,25 +24938,25 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>51</v>
       </c>
@@ -24446,17 +24964,17 @@
         <v>68</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
         <v>101</v>
       </c>
@@ -24474,7 +24992,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -24488,10 +25006,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -24505,10 +25023,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -24522,10 +25040,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -24539,10 +25057,10 @@
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -24556,10 +25074,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -24573,11 +25091,11 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -24591,11 +25109,11 @@
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" s="27" customFormat="1" spans="1:6">
       <c r="A11" s="27">
         <v>8</v>
       </c>
@@ -24609,11 +25127,11 @@
         <v>2</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F11" s="39"/>
     </row>
-    <row r="12" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" s="27" customFormat="1" spans="1:5">
       <c r="A12" s="27">
         <v>9</v>
       </c>
@@ -24627,10 +25145,10 @@
         <v>2</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -24644,10 +25162,10 @@
         <v>2</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -24661,10 +25179,10 @@
         <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -24678,10 +25196,10 @@
         <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -24695,10 +25213,10 @@
         <v>2</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -24712,10 +25230,10 @@
         <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -24729,10 +25247,10 @@
         <v>2</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.15">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="19" s="27" customFormat="1" spans="1:5">
       <c r="A19" s="27">
         <v>16</v>
       </c>
@@ -24746,10 +25264,10 @@
         <v>2</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.15">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="20" s="27" customFormat="1" spans="1:5">
       <c r="A20" s="27">
         <v>17</v>
       </c>
@@ -24763,10 +25281,10 @@
         <v>2</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.15">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="21" s="27" customFormat="1" spans="1:5">
       <c r="A21" s="27">
         <v>18</v>
       </c>
@@ -24780,10 +25298,10 @@
         <v>2</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.15">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="22" s="27" customFormat="1" spans="1:5">
       <c r="A22" s="27">
         <v>19</v>
       </c>
@@ -24797,10 +25315,10 @@
         <v>2</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.15">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="23" s="27" customFormat="1" spans="1:5">
       <c r="A23" s="27">
         <v>20</v>
       </c>
@@ -24814,10 +25332,10 @@
         <v>2</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.15">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="24" s="27" customFormat="1" spans="1:5">
       <c r="A24" s="27">
         <v>21</v>
       </c>
@@ -24831,10 +25349,10 @@
         <v>2</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="25" s="28" customFormat="1" spans="1:5">
       <c r="A25" s="28">
         <v>1000</v>
       </c>
@@ -24848,10 +25366,10 @@
         <v>1</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="26" s="28" customFormat="1" spans="1:5">
       <c r="A26" s="28">
         <v>1001</v>
       </c>
@@ -24865,10 +25383,10 @@
         <v>1</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="27" s="28" customFormat="1" spans="1:5">
       <c r="A27" s="28">
         <v>1002</v>
       </c>
@@ -24882,10 +25400,10 @@
         <v>1</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="28" s="28" customFormat="1" spans="1:5">
       <c r="A28" s="28">
         <v>1003</v>
       </c>
@@ -24899,10 +25417,10 @@
         <v>1</v>
       </c>
       <c r="E28" s="41" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.15">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="29" s="29" customFormat="1" spans="1:5">
       <c r="A29" s="29">
         <v>1004</v>
       </c>
@@ -24916,10 +25434,10 @@
         <v>1</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.15">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="30" s="29" customFormat="1" spans="1:5">
       <c r="A30" s="29">
         <v>1005</v>
       </c>
@@ -24933,10 +25451,10 @@
         <v>1</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.15">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="31" s="29" customFormat="1" spans="1:5">
       <c r="A31" s="29">
         <v>1006</v>
       </c>
@@ -24950,10 +25468,10 @@
         <v>1</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.15">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="32" s="29" customFormat="1" spans="1:5">
       <c r="A32" s="29">
         <v>1007</v>
       </c>
@@ -24967,10 +25485,10 @@
         <v>1</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.15">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="33" s="30" customFormat="1" spans="1:5">
       <c r="A33" s="30">
         <v>1008</v>
       </c>
@@ -24984,10 +25502,10 @@
         <v>1</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.15">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="34" s="30" customFormat="1" spans="1:5">
       <c r="A34" s="30">
         <v>1009</v>
       </c>
@@ -25001,10 +25519,10 @@
         <v>1</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.15">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="35" s="30" customFormat="1" spans="1:5">
       <c r="A35" s="30">
         <v>1010</v>
       </c>
@@ -25018,10 +25536,10 @@
         <v>1</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.15">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="36" s="30" customFormat="1" spans="1:5">
       <c r="A36" s="30">
         <v>1011</v>
       </c>
@@ -25035,10 +25553,10 @@
         <v>1</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.15">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="37" s="30" customFormat="1" spans="1:5">
       <c r="A37" s="30">
         <v>1012</v>
       </c>
@@ -25052,10 +25570,10 @@
         <v>1</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="38" s="31" customFormat="1" spans="1:5">
       <c r="A38" s="31">
         <v>2001</v>
       </c>
@@ -25069,10 +25587,10 @@
         <v>1</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="39" s="31" customFormat="1" spans="1:6">
       <c r="A39" s="31">
         <v>2002</v>
       </c>
@@ -25094,7 +25612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" s="31" customFormat="1" spans="1:5">
       <c r="A40" s="31">
         <v>2003</v>
       </c>
@@ -25108,10 +25626,10 @@
         <v>1</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="41" s="31" customFormat="1" spans="1:5">
       <c r="A41" s="31">
         <v>2005</v>
       </c>
@@ -25125,10 +25643,10 @@
         <v>1</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="42" s="31" customFormat="1" spans="1:6">
       <c r="A42" s="31">
         <v>2006</v>
       </c>
@@ -25150,7 +25668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" s="31" customFormat="1" spans="1:5">
       <c r="A43" s="31">
         <v>2007</v>
       </c>
@@ -25164,10 +25682,10 @@
         <v>1</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="44" s="31" customFormat="1" spans="1:5">
       <c r="A44" s="31">
         <v>2009</v>
       </c>
@@ -25181,10 +25699,10 @@
         <v>1</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="45" s="31" customFormat="1" spans="1:5">
       <c r="A45" s="31">
         <v>2010</v>
       </c>
@@ -25198,10 +25716,10 @@
         <v>1</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="46" s="31" customFormat="1" spans="1:6">
       <c r="A46" s="31">
         <v>2013</v>
       </c>
@@ -25223,7 +25741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" s="31" customFormat="1" spans="1:5">
       <c r="A47" s="31">
         <v>2014</v>
       </c>
@@ -25237,10 +25755,10 @@
         <v>1</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="48" s="31" customFormat="1" spans="1:6">
       <c r="A48" s="31">
         <v>2015</v>
       </c>
@@ -25262,7 +25780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" s="31" customFormat="1" spans="1:5">
       <c r="A49" s="31">
         <v>2017</v>
       </c>
@@ -25276,10 +25794,10 @@
         <v>1</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="50" s="31" customFormat="1" spans="1:6">
       <c r="A50" s="31">
         <v>2018</v>
       </c>
@@ -25301,7 +25819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" s="31" customFormat="1" spans="1:5">
       <c r="A51" s="31">
         <v>2019</v>
       </c>
@@ -25315,10 +25833,10 @@
         <v>1</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="52" s="31" customFormat="1" spans="1:5">
       <c r="A52" s="31">
         <v>2020</v>
       </c>
@@ -25332,10 +25850,10 @@
         <v>1</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="53" s="31" customFormat="1" spans="1:6">
       <c r="A53" s="31">
         <v>2021</v>
       </c>
@@ -25357,7 +25875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" s="31" customFormat="1" spans="1:5">
       <c r="A54" s="31">
         <v>2022</v>
       </c>
@@ -25371,10 +25889,10 @@
         <v>1</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="55" s="31" customFormat="1" spans="1:5">
       <c r="A55" s="31">
         <v>2023</v>
       </c>
@@ -25388,10 +25906,10 @@
         <v>1</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="56" s="31" customFormat="1" spans="1:5">
       <c r="A56" s="31">
         <v>2024</v>
       </c>
@@ -25405,10 +25923,10 @@
         <v>1</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="57" s="31" customFormat="1" spans="1:6">
       <c r="A57" s="31">
         <v>2027</v>
       </c>
@@ -25430,7 +25948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" s="31" customFormat="1" spans="1:5">
       <c r="A58" s="31">
         <v>2030</v>
       </c>
@@ -25444,10 +25962,10 @@
         <v>1</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="59" s="31" customFormat="1" spans="1:5">
       <c r="A59" s="31">
         <v>2031</v>
       </c>
@@ -25461,10 +25979,10 @@
         <v>1</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="60" s="31" customFormat="1" spans="1:5">
       <c r="A60" s="31">
         <v>2034</v>
       </c>
@@ -25478,10 +25996,10 @@
         <v>1</v>
       </c>
       <c r="E60" s="45" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="61" s="31" customFormat="1" spans="1:6">
       <c r="A61" s="31">
         <v>2035</v>
       </c>
@@ -25503,7 +26021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="62" s="31" customFormat="1" spans="1:5">
       <c r="A62" s="31">
         <v>2038</v>
       </c>
@@ -25517,10 +26035,10 @@
         <v>1</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="63" s="31" customFormat="1" spans="1:5">
       <c r="A63" s="31">
         <v>2039</v>
       </c>
@@ -25534,10 +26052,10 @@
         <v>1</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="64" s="32" customFormat="1" spans="1:5">
       <c r="A64" s="32">
         <v>2101</v>
       </c>
@@ -25551,10 +26069,10 @@
         <v>1</v>
       </c>
       <c r="E64" s="32" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="65" s="32" customFormat="1" spans="1:5">
       <c r="A65" s="32">
         <v>2102</v>
       </c>
@@ -25568,10 +26086,10 @@
         <v>1</v>
       </c>
       <c r="E65" s="32" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="66" s="32" customFormat="1" ht="12.75" customHeight="1" spans="1:6">
       <c r="A66" s="32">
         <v>2103</v>
       </c>
@@ -25593,7 +26111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="67" s="32" customFormat="1" spans="1:5">
       <c r="A67" s="32">
         <v>2104</v>
       </c>
@@ -25607,10 +26125,10 @@
         <v>1</v>
       </c>
       <c r="E67" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="68" s="32" customFormat="1" spans="1:5">
       <c r="A68" s="32">
         <v>2105</v>
       </c>
@@ -25624,10 +26142,10 @@
         <v>1</v>
       </c>
       <c r="E68" s="32" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="69" s="32" customFormat="1" spans="1:5">
       <c r="A69" s="32">
         <v>2106</v>
       </c>
@@ -25641,10 +26159,10 @@
         <v>1</v>
       </c>
       <c r="E69" s="32" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="70" s="32" customFormat="1" spans="1:5">
       <c r="A70" s="32">
         <v>2107</v>
       </c>
@@ -25658,10 +26176,10 @@
         <v>1</v>
       </c>
       <c r="E70" s="32" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="71" s="32" customFormat="1" spans="1:6">
       <c r="A71" s="32">
         <v>2108</v>
       </c>
@@ -25683,7 +26201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="72" s="32" customFormat="1" spans="1:5">
       <c r="A72" s="32">
         <v>2109</v>
       </c>
@@ -25697,10 +26215,10 @@
         <v>1</v>
       </c>
       <c r="E72" s="32" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="73" s="32" customFormat="1" spans="1:5">
       <c r="A73" s="32">
         <v>2110</v>
       </c>
@@ -25714,10 +26232,10 @@
         <v>1</v>
       </c>
       <c r="E73" s="32" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="74" s="32" customFormat="1" spans="1:5">
       <c r="A74" s="32">
         <v>2112</v>
       </c>
@@ -25731,10 +26249,10 @@
         <v>1</v>
       </c>
       <c r="E74" s="32" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="75" s="32" customFormat="1" spans="1:6">
       <c r="A75" s="32">
         <v>2113</v>
       </c>
@@ -25756,7 +26274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="76" s="32" customFormat="1" spans="1:5">
       <c r="A76" s="32">
         <v>2115</v>
       </c>
@@ -25770,10 +26288,10 @@
         <v>1</v>
       </c>
       <c r="E76" s="32" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="77" s="32" customFormat="1" spans="1:5">
       <c r="A77" s="32">
         <v>2116</v>
       </c>
@@ -25787,10 +26305,10 @@
         <v>1</v>
       </c>
       <c r="E77" s="32" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="78" s="32" customFormat="1" spans="1:6">
       <c r="A78" s="32">
         <v>2118</v>
       </c>
@@ -25812,7 +26330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="79" s="32" customFormat="1" spans="1:5">
       <c r="A79" s="32">
         <v>2119</v>
       </c>
@@ -25826,10 +26344,10 @@
         <v>1</v>
       </c>
       <c r="E79" s="32" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="80" s="32" customFormat="1" spans="1:5">
       <c r="A80" s="32">
         <v>2120</v>
       </c>
@@ -25843,10 +26361,10 @@
         <v>1</v>
       </c>
       <c r="E80" s="32" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="81" s="32" customFormat="1" spans="1:5">
       <c r="A81" s="32">
         <v>2122</v>
       </c>
@@ -25860,10 +26378,10 @@
         <v>1</v>
       </c>
       <c r="E81" s="32" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="82" s="32" customFormat="1" spans="1:6">
       <c r="A82" s="32">
         <v>2123</v>
       </c>
@@ -25885,7 +26403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="83" s="32" customFormat="1" spans="1:5">
       <c r="A83" s="32">
         <v>2124</v>
       </c>
@@ -25899,10 +26417,10 @@
         <v>1</v>
       </c>
       <c r="E83" s="32" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="84" s="32" customFormat="1" spans="1:5">
       <c r="A84" s="32">
         <v>2126</v>
       </c>
@@ -25916,10 +26434,10 @@
         <v>1</v>
       </c>
       <c r="E84" s="32" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="85" s="32" customFormat="1" spans="1:5">
       <c r="A85" s="32">
         <v>2127</v>
       </c>
@@ -25933,10 +26451,10 @@
         <v>1</v>
       </c>
       <c r="E85" s="32" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="86" s="32" customFormat="1" spans="1:5">
       <c r="A86" s="32">
         <v>2128</v>
       </c>
@@ -25950,10 +26468,10 @@
         <v>1</v>
       </c>
       <c r="E86" s="32" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="87" s="32" customFormat="1" spans="1:5">
       <c r="A87" s="32">
         <v>2131</v>
       </c>
@@ -25967,10 +26485,10 @@
         <v>1</v>
       </c>
       <c r="E87" s="32" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="88" s="32" customFormat="1" spans="1:5">
       <c r="A88" s="32">
         <v>2132</v>
       </c>
@@ -25984,10 +26502,10 @@
         <v>1</v>
       </c>
       <c r="E88" s="32" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="89" s="32" customFormat="1" spans="1:5">
       <c r="A89" s="32">
         <v>2133</v>
       </c>
@@ -26001,10 +26519,10 @@
         <v>1</v>
       </c>
       <c r="E89" s="32" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="90" s="32" customFormat="1" spans="1:5">
       <c r="A90" s="32">
         <v>2134</v>
       </c>
@@ -26018,10 +26536,10 @@
         <v>1</v>
       </c>
       <c r="E90" s="32" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="91" s="31" customFormat="1" spans="1:5">
       <c r="A91" s="31">
         <v>2201</v>
       </c>
@@ -26035,10 +26553,10 @@
         <v>1</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="92" s="31" customFormat="1" spans="1:5">
       <c r="A92" s="31">
         <v>2202</v>
       </c>
@@ -26052,10 +26570,10 @@
         <v>1</v>
       </c>
       <c r="E92" s="31" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="93" s="31" customFormat="1" spans="1:5">
       <c r="A93" s="31">
         <v>2203</v>
       </c>
@@ -26069,10 +26587,10 @@
         <v>1</v>
       </c>
       <c r="E93" s="31" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="94" s="31" customFormat="1" spans="1:5">
       <c r="A94" s="31">
         <v>2204</v>
       </c>
@@ -26086,10 +26604,10 @@
         <v>1</v>
       </c>
       <c r="E94" s="31" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="95" s="31" customFormat="1" spans="1:5">
       <c r="A95" s="31">
         <v>2205</v>
       </c>
@@ -26103,10 +26621,10 @@
         <v>1</v>
       </c>
       <c r="E95" s="31" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="96" s="31" customFormat="1" spans="1:5">
       <c r="A96" s="31">
         <v>2207</v>
       </c>
@@ -26120,10 +26638,10 @@
         <v>1</v>
       </c>
       <c r="E96" s="31" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.15">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="97" s="31" customFormat="1" spans="1:5">
       <c r="A97" s="31">
         <v>2208</v>
       </c>
@@ -26137,10 +26655,10 @@
         <v>1</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.15">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="98" s="31" customFormat="1" spans="1:5">
       <c r="A98" s="31">
         <v>2209</v>
       </c>
@@ -26154,10 +26672,10 @@
         <v>1</v>
       </c>
       <c r="E98" s="31" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.15">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="99" s="31" customFormat="1" spans="1:5">
       <c r="A99" s="31">
         <v>2211</v>
       </c>
@@ -26171,10 +26689,10 @@
         <v>1</v>
       </c>
       <c r="E99" s="31" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.15">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="100" s="31" customFormat="1" spans="1:5">
       <c r="A100" s="31">
         <v>2212</v>
       </c>
@@ -26188,10 +26706,10 @@
         <v>1</v>
       </c>
       <c r="E100" s="31" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.15">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="101" s="31" customFormat="1" spans="1:5">
       <c r="A101" s="31">
         <v>2214</v>
       </c>
@@ -26205,10 +26723,10 @@
         <v>1</v>
       </c>
       <c r="E101" s="31" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.15">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="102" s="31" customFormat="1" spans="1:5">
       <c r="A102" s="31">
         <v>2218</v>
       </c>
@@ -26222,10 +26740,10 @@
         <v>1</v>
       </c>
       <c r="E102" s="31" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.15">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="103" s="31" customFormat="1" spans="1:5">
       <c r="A103" s="31">
         <v>2220</v>
       </c>
@@ -26239,10 +26757,10 @@
         <v>1</v>
       </c>
       <c r="E103" s="31" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.15">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="104" s="31" customFormat="1" spans="1:5">
       <c r="A104" s="31">
         <v>2221</v>
       </c>
@@ -26256,10 +26774,10 @@
         <v>1</v>
       </c>
       <c r="E104" s="31" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.15">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="105" s="31" customFormat="1" spans="1:5">
       <c r="A105" s="31">
         <v>2224</v>
       </c>
@@ -26273,10 +26791,10 @@
         <v>1</v>
       </c>
       <c r="E105" s="31" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.15">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="106" s="31" customFormat="1" spans="1:5">
       <c r="A106" s="31">
         <v>2226</v>
       </c>
@@ -26290,10 +26808,10 @@
         <v>1</v>
       </c>
       <c r="E106" s="31" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.15">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="107" s="31" customFormat="1" spans="1:5">
       <c r="A107" s="31">
         <v>2227</v>
       </c>
@@ -26307,10 +26825,10 @@
         <v>1</v>
       </c>
       <c r="E107" s="31" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.15">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="108" s="31" customFormat="1" spans="1:5">
       <c r="A108" s="31">
         <v>2230</v>
       </c>
@@ -26324,10 +26842,10 @@
         <v>1</v>
       </c>
       <c r="E108" s="31" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.15">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="109" s="31" customFormat="1" spans="1:5">
       <c r="A109" s="31">
         <v>2232</v>
       </c>
@@ -26341,10 +26859,10 @@
         <v>1</v>
       </c>
       <c r="E109" s="31" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.15">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="110" s="31" customFormat="1" spans="1:5">
       <c r="A110" s="31">
         <v>2233</v>
       </c>
@@ -26358,10 +26876,10 @@
         <v>1</v>
       </c>
       <c r="E110" s="31" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="111" s="11" customFormat="1" spans="1:5">
       <c r="A111" s="11">
         <v>3101</v>
       </c>
@@ -26375,10 +26893,10 @@
         <v>3</v>
       </c>
       <c r="E111" s="50" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="112" s="11" customFormat="1" spans="1:5">
       <c r="A112" s="11">
         <v>3102</v>
       </c>
@@ -26392,10 +26910,10 @@
         <v>3</v>
       </c>
       <c r="E112" s="50" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="113" s="11" customFormat="1" spans="1:5">
       <c r="A113" s="11">
         <v>3103</v>
       </c>
@@ -26409,10 +26927,10 @@
         <v>3</v>
       </c>
       <c r="E113" s="50" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="114" s="11" customFormat="1" spans="1:5">
       <c r="A114" s="11">
         <v>3111</v>
       </c>
@@ -26426,10 +26944,10 @@
         <v>3</v>
       </c>
       <c r="E114" s="50" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="115" s="11" customFormat="1" spans="1:5">
       <c r="A115" s="11">
         <v>3112</v>
       </c>
@@ -26443,10 +26961,10 @@
         <v>3</v>
       </c>
       <c r="E115" s="50" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="116" s="11" customFormat="1" spans="1:5">
       <c r="A116" s="11">
         <v>3113</v>
       </c>
@@ -26460,10 +26978,10 @@
         <v>3</v>
       </c>
       <c r="E116" s="50" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="117" s="11" customFormat="1" spans="1:5">
       <c r="A117" s="11">
         <v>3121</v>
       </c>
@@ -26477,10 +26995,10 @@
         <v>3</v>
       </c>
       <c r="E117" s="51" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="118" s="11" customFormat="1" spans="1:5">
       <c r="A118" s="11">
         <v>3122</v>
       </c>
@@ -26494,10 +27012,10 @@
         <v>3</v>
       </c>
       <c r="E118" s="50" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="119" s="11" customFormat="1" spans="1:5">
       <c r="A119" s="11">
         <v>3123</v>
       </c>
@@ -26511,10 +27029,10 @@
         <v>3</v>
       </c>
       <c r="E119" s="50" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="120" s="11" customFormat="1" spans="1:5">
       <c r="A120" s="11">
         <v>3131</v>
       </c>
@@ -26528,10 +27046,10 @@
         <v>3</v>
       </c>
       <c r="E120" s="50" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="121" s="11" customFormat="1" spans="1:5">
       <c r="A121" s="11">
         <v>3132</v>
       </c>
@@ -26545,10 +27063,10 @@
         <v>3</v>
       </c>
       <c r="E121" s="50" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="122" s="11" customFormat="1" spans="1:5">
       <c r="A122" s="11">
         <v>3133</v>
       </c>
@@ -26562,10 +27080,10 @@
         <v>3</v>
       </c>
       <c r="E122" s="50" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="123" s="11" customFormat="1" spans="1:5">
       <c r="A123" s="11">
         <v>3141</v>
       </c>
@@ -26579,10 +27097,10 @@
         <v>3</v>
       </c>
       <c r="E123" s="51" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="124" s="11" customFormat="1" spans="1:5">
       <c r="A124" s="11">
         <v>3142</v>
       </c>
@@ -26596,10 +27114,10 @@
         <v>3</v>
       </c>
       <c r="E124" s="50" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="125" s="11" customFormat="1" spans="1:5">
       <c r="A125" s="11">
         <v>3143</v>
       </c>
@@ -26613,10 +27131,10 @@
         <v>3</v>
       </c>
       <c r="E125" s="51" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="126" s="11" customFormat="1" spans="1:5">
       <c r="A126" s="11">
         <v>3151</v>
       </c>
@@ -26630,10 +27148,10 @@
         <v>3</v>
       </c>
       <c r="E126" s="51" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="127" s="11" customFormat="1" spans="1:5">
       <c r="A127" s="11">
         <v>3152</v>
       </c>
@@ -26647,10 +27165,10 @@
         <v>3</v>
       </c>
       <c r="E127" s="50" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="128" s="11" customFormat="1" spans="1:5">
       <c r="A128" s="11">
         <v>3153</v>
       </c>
@@ -26664,10 +27182,10 @@
         <v>3</v>
       </c>
       <c r="E128" s="51" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="129" s="11" customFormat="1" spans="1:6">
       <c r="A129" s="11">
         <v>3161</v>
       </c>
@@ -26681,11 +27199,11 @@
         <v>3</v>
       </c>
       <c r="E129" s="51" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F129" s="12"/>
     </row>
-    <row r="130" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="130" s="11" customFormat="1" spans="1:5">
       <c r="A130" s="11">
         <v>3162</v>
       </c>
@@ -26699,10 +27217,10 @@
         <v>3</v>
       </c>
       <c r="E130" s="51" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="131" s="11" customFormat="1" spans="1:5">
       <c r="A131" s="11">
         <v>3163</v>
       </c>
@@ -26716,10 +27234,10 @@
         <v>3</v>
       </c>
       <c r="E131" s="50" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="132" s="33" customFormat="1" spans="1:5">
       <c r="A132" s="33">
         <v>3201</v>
       </c>
@@ -26733,10 +27251,10 @@
         <v>3</v>
       </c>
       <c r="E132" s="54" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="133" s="33" customFormat="1" spans="1:5">
       <c r="A133" s="33">
         <v>3202</v>
       </c>
@@ -26750,10 +27268,10 @@
         <v>3</v>
       </c>
       <c r="E133" s="54" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="134" s="33" customFormat="1" spans="1:5">
       <c r="A134" s="33">
         <v>3203</v>
       </c>
@@ -26767,10 +27285,10 @@
         <v>3</v>
       </c>
       <c r="E134" s="54" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="135" s="33" customFormat="1" spans="1:5">
       <c r="A135" s="33">
         <v>3211</v>
       </c>
@@ -26784,10 +27302,10 @@
         <v>3</v>
       </c>
       <c r="E135" s="54" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="136" s="33" customFormat="1" spans="1:5">
       <c r="A136" s="33">
         <v>3212</v>
       </c>
@@ -26801,10 +27319,10 @@
         <v>3</v>
       </c>
       <c r="E136" s="54" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="137" s="33" customFormat="1" spans="1:5">
       <c r="A137" s="33">
         <v>3213</v>
       </c>
@@ -26818,10 +27336,10 @@
         <v>3</v>
       </c>
       <c r="E137" s="54" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="138" s="33" customFormat="1" spans="1:5">
       <c r="A138" s="33">
         <v>3221</v>
       </c>
@@ -26835,10 +27353,10 @@
         <v>3</v>
       </c>
       <c r="E138" s="54" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="139" s="33" customFormat="1" spans="1:5">
       <c r="A139" s="33">
         <v>3222</v>
       </c>
@@ -26852,10 +27370,10 @@
         <v>3</v>
       </c>
       <c r="E139" s="54" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="140" s="33" customFormat="1" spans="1:5">
       <c r="A140" s="33">
         <v>3223</v>
       </c>
@@ -26869,10 +27387,10 @@
         <v>3</v>
       </c>
       <c r="E140" s="54" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="141" s="33" customFormat="1" spans="1:5">
       <c r="A141" s="33">
         <v>3231</v>
       </c>
@@ -26886,10 +27404,10 @@
         <v>3</v>
       </c>
       <c r="E141" s="54" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="142" s="33" customFormat="1" spans="1:5">
       <c r="A142" s="33">
         <v>3232</v>
       </c>
@@ -26903,10 +27421,10 @@
         <v>3</v>
       </c>
       <c r="E142" s="54" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="143" s="33" customFormat="1" spans="1:5">
       <c r="A143" s="33">
         <v>3233</v>
       </c>
@@ -26920,10 +27438,10 @@
         <v>3</v>
       </c>
       <c r="E143" s="54" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="144" s="33" customFormat="1" spans="1:5">
       <c r="A144" s="33">
         <v>3241</v>
       </c>
@@ -26937,10 +27455,10 @@
         <v>3</v>
       </c>
       <c r="E144" s="54" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="145" s="33" customFormat="1" spans="1:5">
       <c r="A145" s="33">
         <v>3242</v>
       </c>
@@ -26954,10 +27472,10 @@
         <v>3</v>
       </c>
       <c r="E145" s="55" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="146" s="33" customFormat="1" spans="1:5">
       <c r="A146" s="33">
         <v>3243</v>
       </c>
@@ -26971,10 +27489,10 @@
         <v>3</v>
       </c>
       <c r="E146" s="54" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="147" s="33" customFormat="1" spans="1:5">
       <c r="A147" s="33">
         <v>3251</v>
       </c>
@@ -26988,10 +27506,10 @@
         <v>3</v>
       </c>
       <c r="E147" s="55" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="148" s="33" customFormat="1" spans="1:5">
       <c r="A148" s="33">
         <v>3252</v>
       </c>
@@ -27005,10 +27523,10 @@
         <v>3</v>
       </c>
       <c r="E148" s="54" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="149" s="33" customFormat="1" spans="1:5">
       <c r="A149" s="33">
         <v>3253</v>
       </c>
@@ -27022,10 +27540,10 @@
         <v>3</v>
       </c>
       <c r="E149" s="54" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="150" s="33" customFormat="1" spans="1:5">
       <c r="A150" s="33">
         <v>3261</v>
       </c>
@@ -27039,10 +27557,10 @@
         <v>3</v>
       </c>
       <c r="E150" s="54" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="151" s="33" customFormat="1" spans="1:5">
       <c r="A151" s="33">
         <v>3262</v>
       </c>
@@ -27056,10 +27574,10 @@
         <v>3</v>
       </c>
       <c r="E151" s="54" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="152" s="33" customFormat="1" spans="1:5">
       <c r="A152" s="33">
         <v>3263</v>
       </c>
@@ -27073,20 +27591,22 @@
         <v>3</v>
       </c>
       <c r="E152" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F152"/>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <autoFilter ref="A1:F152">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet3">
     <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
@@ -27096,7 +27616,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="9" style="21"/>
     <col min="3" max="3" width="11.5" style="21" customWidth="1"/>
@@ -27108,59 +27628,59 @@
     <col min="9" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F1" s="23" t="s">
         <v>24</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="24" t="s">
         <v>51</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>53</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="25" t="s">
         <v>101</v>
       </c>
@@ -27186,42 +27706,42 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="20" customFormat="1" spans="1:7">
       <c r="A4" s="26"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" s="20" customFormat="1" spans="1:7">
       <c r="A5" s="26"/>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" s="20" customFormat="1" spans="1:7">
       <c r="A6" s="26"/>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="26"/>
       <c r="B7" s="26"/>
       <c r="G7" s="19"/>
       <c r="H7" s="20"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M38"/>
   <sheetViews>
@@ -27229,41 +27749,41 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="20.375" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
         <v>101</v>
       </c>
@@ -27277,17 +27797,17 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="13" t="s">
         <v>108</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="15"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -27298,10 +27818,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="16">
         <v>2</v>
       </c>
@@ -27312,10 +27832,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="16">
         <v>3</v>
       </c>
@@ -27326,10 +27846,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="16">
         <v>4</v>
       </c>
@@ -27337,13 +27857,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="16">
         <v>5</v>
       </c>
@@ -27354,10 +27874,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="16">
         <v>6</v>
       </c>
@@ -27368,120 +27888,120 @@
         <v>5</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="18"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="18"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="18"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="18"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:4">
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="4:4">
       <c r="D17" s="18"/>
     </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:4">
       <c r="D18" s="18"/>
     </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:4">
       <c r="D19" s="18"/>
     </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:13">
       <c r="D20" s="18"/>
       <c r="M20" s="19" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.15">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
       <c r="D21" s="18"/>
     </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="4:4">
       <c r="D22" s="18"/>
     </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="4:4">
       <c r="D23" s="18"/>
     </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="4:4">
       <c r="D24" s="18"/>
     </row>
-    <row r="25" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="4:4">
       <c r="D25" s="18"/>
     </row>
-    <row r="26" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="4:4">
       <c r="D26" s="18"/>
     </row>
-    <row r="27" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="4:4">
       <c r="D27" s="18"/>
     </row>
-    <row r="28" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="4:4">
       <c r="D28" s="18"/>
     </row>
-    <row r="29" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="4:4">
       <c r="D29" s="18"/>
     </row>
-    <row r="30" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="4:4">
       <c r="D30" s="18"/>
     </row>
-    <row r="31" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="4:4">
       <c r="D31" s="18"/>
     </row>
-    <row r="32" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="4:4">
       <c r="D32" s="18"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="4:4">
       <c r="D33" s="18"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:4">
       <c r="D34" s="18"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:4">
       <c r="D35" s="18"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="4:4">
       <c r="D36" s="18"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="4:4">
       <c r="D37" s="18"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="4:4">
       <c r="D38" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -27489,7 +28009,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="45.5" style="1" customWidth="1"/>
@@ -27497,283 +28017,283 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="8">
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="8">
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="8">
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="8">
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" s="11">
         <v>12</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" s="11">
         <v>13</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" s="11">
         <v>14</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" s="11">
         <v>15</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="11">
         <v>16</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="11">
         <v>17</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" s="11">
         <v>18</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="11">
         <v>19</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" s="11">
         <v>20</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="11">
         <v>21</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>